--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -370,6 +370,45 @@
   </si>
   <si>
     <t>PARA ALMACEN DE PIEZAS MINI</t>
+  </si>
+  <si>
+    <t>22  julio</t>
+  </si>
+  <si>
+    <t>Martillo</t>
+  </si>
+  <si>
+    <t>Martillo de Goma</t>
+  </si>
+  <si>
+    <t>$8500</t>
+  </si>
+  <si>
+    <t>Toallitas</t>
+  </si>
+  <si>
+    <t>Toallas para limpiar</t>
+  </si>
+  <si>
+    <t>$100</t>
+  </si>
+  <si>
+    <t>Silla Pro</t>
+  </si>
+  <si>
+    <t>Silla gamer</t>
+  </si>
+  <si>
+    <t>$1000</t>
+  </si>
+  <si>
+    <t>Fabuloso</t>
+  </si>
+  <si>
+    <t>Aromatizante para trapear</t>
+  </si>
+  <si>
+    <t>$50</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1180,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
@@ -1681,19 +1720,28 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17">
+    <row r="44">
+      <c r="A44" t="s" s="15">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s" s="15">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s" s="15">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s" s="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17">
         <f>SUM(D2:D43)</f>
         <v>10563.19</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -2039,9 +2087,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
@@ -2296,16 +2344,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17">
+    <row r="21">
+      <c r="A21" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s" s="16">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s" s="16">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s" s="16">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17">
         <f>SUM(D2:D20)</f>
         <v>2378</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2408,10 +2469,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
@@ -3088,30 +3149,34 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17">
+    <row r="50">
+      <c r="A50" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s" s="16">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s" s="16">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s" s="16">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17">
         <f>SUM(D2:D49)</f>
         <v>19953.989999999998</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3610,10 +3675,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
@@ -3702,19 +3767,28 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
+    <row r="8">
+      <c r="A8" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s" s="16">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s" s="16">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17">
         <f>SUM(D2:D7)</f>
         <v>525</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="132">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -409,6 +409,24 @@
   </si>
   <si>
     <t>$50</t>
+  </si>
+  <si>
+    <t>Equipo y Mobiliario</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ </t>
+  </si>
+  <si>
+    <t>martillo</t>
+  </si>
+  <si>
+    <t>rojo</t>
+  </si>
+  <si>
+    <t>$ 123</t>
   </si>
 </sst>
 </file>
@@ -1734,31 +1752,58 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17">
+    <row r="45">
+      <c r="A45" t="s" s="15">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="15">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s" s="15">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s" s="15">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s" s="15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="15">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C47" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17">
         <f>SUM(D2:D43)</f>
         <v>10563.19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>$ 123</t>
+  </si>
+  <si>
+    <t>23  julio</t>
   </si>
 </sst>
 </file>
@@ -1794,36 +1797,72 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17">
+    <row r="48">
+      <c r="A48" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="B48" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C49" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D49" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D51" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17">
         <f>SUM(D2:D43)</f>
         <v>10563.19</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>$ 123</t>
+  </si>
+  <si>
+    <t>23  julio</t>
   </si>
 </sst>
 </file>
@@ -1794,26 +1797,44 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17">
+    <row r="48">
+      <c r="A48" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="B48" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C49" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D49" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17">
         <f>SUM(D2:D43)</f>
         <v>10563.19</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="134">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>23  julio</t>
+  </si>
+  <si>
+    <t>$8900</t>
   </si>
 </sst>
 </file>
@@ -1853,21 +1856,30 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17">
+    <row r="52">
+      <c r="A52" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="B52" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s" s="15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17">
         <f>SUM(D2:D43)</f>
         <v>10563.19</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -1853,26 +1853,44 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17">
+    <row r="52">
+      <c r="A52" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="B52" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D53" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17">
         <f>SUM(D2:D43)</f>
         <v>10563.19</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="147">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -430,6 +430,48 @@
   </si>
   <si>
     <t>23  julio</t>
+  </si>
+  <si>
+    <t>24  julio</t>
+  </si>
+  <si>
+    <t>Martillo Nuevesini</t>
+  </si>
+  <si>
+    <t>Martillo para golpear bici</t>
+  </si>
+  <si>
+    <t>$250</t>
+  </si>
+  <si>
+    <t>Desarmador de estrella</t>
+  </si>
+  <si>
+    <t>Desarmador tipo estrella</t>
+  </si>
+  <si>
+    <t>$500</t>
+  </si>
+  <si>
+    <t>Martillo Nuevo</t>
+  </si>
+  <si>
+    <t>Equisde</t>
+  </si>
+  <si>
+    <t>$150</t>
+  </si>
+  <si>
+    <t>Llave Allen</t>
+  </si>
+  <si>
+    <t>Llave para apretars</t>
+  </si>
+  <si>
+    <t>$8000</t>
+  </si>
+  <si>
+    <t>$58000</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
@@ -1869,43 +1911,70 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="15">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s" s="15">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s" s="15">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s" s="15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="15">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s" s="15">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s" s="15">
+        <v>138</v>
+      </c>
+      <c r="D54" t="s" s="15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="15">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s" s="15">
         <v>126</v>
       </c>
-      <c r="C53" t="s" s="15">
+      <c r="C55" t="s" s="15">
         <v>127</v>
       </c>
-      <c r="D53" t="s" s="15">
+      <c r="D55" t="s" s="15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="15">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s" s="15">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17">
+    <row r="57" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17">
         <f>SUM(D2:D43)</f>
         <v>10563.19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
@@ -2085,22 +2154,22 @@
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
@@ -2140,35 +2209,15 @@
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="D110" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="157">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -472,6 +472,36 @@
   </si>
   <si>
     <t>$58000</t>
+  </si>
+  <si>
+    <t>Equis</t>
+  </si>
+  <si>
+    <t>Dududu</t>
+  </si>
+  <si>
+    <t>$1500</t>
+  </si>
+  <si>
+    <t>Martilo xd</t>
+  </si>
+  <si>
+    <t>Silla</t>
+  </si>
+  <si>
+    <t>Jeje</t>
+  </si>
+  <si>
+    <t>$800</t>
+  </si>
+  <si>
+    <t>$75</t>
+  </si>
+  <si>
+    <t>Tripie para bici</t>
+  </si>
+  <si>
+    <t>Tripie para voltear bici</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
@@ -1965,41 +1995,86 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17">
+    <row r="57">
+      <c r="A57" t="s" s="15">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s" s="15">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s" s="15">
+        <v>148</v>
+      </c>
+      <c r="D57" t="s" s="15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="15">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="15">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D59" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="15">
+        <v>133</v>
+      </c>
+      <c r="B60" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D60" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="15">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D61" t="s" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17">
         <f>SUM(D2:D43)</f>
         <v>10563.19</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
@@ -2149,7 +2224,7 @@
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
@@ -2204,7 +2279,7 @@
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
@@ -2213,11 +2288,6 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="D106" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
@@ -2230,7 +2300,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8B7A49-5823-4EB3-ACA3-5B311B3AC383}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -2509,16 +2579,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17">
+    <row r="22">
+      <c r="A22" t="s" s="16">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s" s="16">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s" s="16">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s" s="16">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17">
         <f>SUM(D2:D20)</f>
         <v>2378</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2527,7 +2610,7 @@
     <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2602,7 +2685,6 @@
     <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3314,30 +3396,34 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17">
+    <row r="51">
+      <c r="A51" t="s" s="16">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s" s="16">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s" s="16">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s" s="16">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17">
         <f>SUM(D2:D49)</f>
         <v>19953.989999999998</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3932,21 +4018,30 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17">
+    <row r="9">
+      <c r="A9" t="s" s="16">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s" s="16">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s" s="16">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s" s="16">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17">
         <f>SUM(D2:D7)</f>
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="161">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -502,6 +502,18 @@
   </si>
   <si>
     <t>Tripie para voltear bici</t>
+  </si>
+  <si>
+    <t>27  julio</t>
+  </si>
+  <si>
+    <t>Desarmador</t>
+  </si>
+  <si>
+    <t>Sillas</t>
+  </si>
+  <si>
+    <t>$2500</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
@@ -2219,7 +2231,7 @@
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
@@ -2274,7 +2286,7 @@
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
@@ -2283,11 +2295,6 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="D105" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
@@ -2693,7 +2700,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3488,10 +3495,6 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
@@ -3517,7 +3520,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3596,10 +3599,9 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
@@ -3836,7 +3838,7 @@
       <c r="B124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="D125" s="1"/>
@@ -3885,11 +3887,6 @@
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="D135" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4186FC6-92C6-448D-8C14-A6657B992FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDC3F4-BE1F-4CBB-A609-B5D851D821D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HERRAMIENTAS" sheetId="4" r:id="rId1"/>
@@ -19,19 +19,11 @@
     <sheet name="EQUIPO DE LIMPIEZA" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="150">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -453,27 +445,12 @@
     <t>$500</t>
   </si>
   <si>
-    <t>Martillo Nuevo</t>
-  </si>
-  <si>
     <t>Equisde</t>
   </si>
   <si>
-    <t>$150</t>
-  </si>
-  <si>
-    <t>Llave Allen</t>
-  </si>
-  <si>
-    <t>Llave para apretars</t>
-  </si>
-  <si>
     <t>$8000</t>
   </si>
   <si>
-    <t>$58000</t>
-  </si>
-  <si>
     <t>Equis</t>
   </si>
   <si>
@@ -483,9 +460,6 @@
     <t>$1500</t>
   </si>
   <si>
-    <t>Martilo xd</t>
-  </si>
-  <si>
     <t>Silla</t>
   </si>
   <si>
@@ -498,22 +472,7 @@
     <t>$75</t>
   </si>
   <si>
-    <t>Tripie para bici</t>
-  </si>
-  <si>
-    <t>Tripie para voltear bici</t>
-  </si>
-  <si>
     <t>27  julio</t>
-  </si>
-  <si>
-    <t>Desarmador</t>
-  </si>
-  <si>
-    <t>Sillas</t>
-  </si>
-  <si>
-    <t>$2500</t>
   </si>
 </sst>
 </file>
@@ -665,7 +624,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -956,7 +915,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1276,22 +1235,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="A64:D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1303,7 +1262,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -1315,7 +1274,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -1327,7 +1286,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>43871</v>
       </c>
@@ -1339,7 +1298,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -1353,7 +1312,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -1365,7 +1324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -1377,7 +1336,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43987</v>
       </c>
@@ -1389,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43845</v>
       </c>
@@ -1401,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43845</v>
       </c>
@@ -1413,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43845</v>
       </c>
@@ -1425,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -1437,7 +1396,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -1451,7 +1410,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -1463,7 +1422,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>43917</v>
       </c>
@@ -1475,7 +1434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43845</v>
       </c>
@@ -1487,7 +1446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43845</v>
       </c>
@@ -1499,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -1511,7 +1470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -1523,7 +1482,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -1535,7 +1494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>43845</v>
       </c>
@@ -1547,7 +1506,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43845</v>
       </c>
@@ -1559,7 +1518,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>43880</v>
       </c>
@@ -1571,7 +1530,7 @@
         <v>496.55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>43917</v>
       </c>
@@ -1583,7 +1542,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>43850</v>
       </c>
@@ -1595,7 +1554,7 @@
         <v>121.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>43845</v>
       </c>
@@ -1607,7 +1566,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43845</v>
       </c>
@@ -1619,7 +1578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43845</v>
       </c>
@@ -1631,7 +1590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43845</v>
       </c>
@@ -1645,7 +1604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43845</v>
       </c>
@@ -1657,7 +1616,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>43850</v>
       </c>
@@ -1669,7 +1628,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43845</v>
       </c>
@@ -1681,7 +1640,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43845</v>
       </c>
@@ -1693,7 +1652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43845</v>
       </c>
@@ -1705,7 +1664,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -1718,7 +1677,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -1731,7 +1690,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>43979</v>
       </c>
@@ -1744,7 +1703,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>43871</v>
       </c>
@@ -1757,7 +1716,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>43871</v>
       </c>
@@ -1770,7 +1729,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>43871</v>
       </c>
@@ -1783,7 +1742,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>43845</v>
       </c>
@@ -1798,7 +1757,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>44012</v>
       </c>
@@ -1813,7 +1772,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>44012</v>
       </c>
@@ -1825,477 +1784,486 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="15">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B44" t="s" s="15">
+      <c r="B44" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C44" t="s" s="15">
+      <c r="C44" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D44" t="s" s="15">
+      <c r="D44" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="15">
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B45" t="s" s="15">
+      <c r="B45" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C45" t="s" s="15">
+      <c r="C45" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D45" t="s" s="15">
+      <c r="D45" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="15">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B46" t="s" s="15">
+      <c r="B46" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C46" t="s" s="15">
+      <c r="C46" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D46" t="s" s="15">
+      <c r="D46" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="15">
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B47" t="s" s="15">
+      <c r="B47" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C47" t="s" s="15">
+      <c r="C47" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D47" t="s" s="15">
+      <c r="D47" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="15">
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B48" t="s" s="15">
+      <c r="B48" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C48" t="s" s="15">
+      <c r="C48" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D48" t="s" s="15">
+      <c r="D48" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="15">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B49" t="s" s="15">
+      <c r="B49" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C49" t="s" s="15">
+      <c r="C49" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D49" t="s" s="15">
+      <c r="D49" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="15">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B50" t="s" s="15">
+      <c r="B50" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C50" t="s" s="15">
+      <c r="C50" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D50" t="s" s="15">
+      <c r="D50" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="15">
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B51" t="s" s="15">
+      <c r="B51" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C51" t="s" s="15">
+      <c r="C51" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D51" t="s" s="15">
+      <c r="D51" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="15">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B52" t="s" s="15">
+      <c r="B52" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C52" t="s" s="15">
+      <c r="C52" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D52" t="s" s="15">
+      <c r="D52" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="15">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B53" t="s" s="15">
+      <c r="B53" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C53" t="s" s="15">
+      <c r="C53" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D53" t="s" s="15">
+      <c r="D53" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="15">
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B54" t="s" s="15">
+      <c r="B54" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C54" t="s" s="15">
+      <c r="C54" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D54" t="s" s="15">
+      <c r="D54" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="15">
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B55" t="s" s="15">
+      <c r="B55" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C55" t="s" s="15">
+      <c r="C55" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D55" t="s" s="15">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="15">
+      <c r="D55" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B56" t="s" s="15">
+      <c r="B56" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C56" t="s" s="15">
+      <c r="C56" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D56" t="s" s="15">
+      <c r="D56" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="15">
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B57" t="s" s="15">
-        <v>147</v>
-      </c>
-      <c r="C57" t="s" s="15">
-        <v>148</v>
-      </c>
-      <c r="D57" t="s" s="15">
+      <c r="B57" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="15">
-        <v>133</v>
-      </c>
-      <c r="B58" t="s" s="15">
+      <c r="B62" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C58" t="s" s="15">
+      <c r="C62" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D58" t="s" s="15">
+      <c r="D62" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="15">
-        <v>133</v>
-      </c>
-      <c r="B59" t="s" s="15">
+    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C59" t="s" s="15">
+      <c r="C63" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D59" t="s" s="15">
+      <c r="D63" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="15">
-        <v>133</v>
-      </c>
-      <c r="B60" t="s" s="15">
+    <row r="64"/>
+    <row r="65">
+      <c r="A65" t="s" s="15">
+        <v>149</v>
+      </c>
+      <c r="B65" t="s" s="15">
         <v>126</v>
       </c>
-      <c r="C60" t="s" s="15">
+      <c r="C65" t="s" s="15">
         <v>127</v>
       </c>
-      <c r="D60" t="s" s="15">
+      <c r="D65" t="s" s="15">
         <v>128</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="15">
-        <v>133</v>
-      </c>
-      <c r="B61" t="s" s="15">
-        <v>126</v>
-      </c>
-      <c r="C61" t="s" s="15">
-        <v>127</v>
-      </c>
-      <c r="D61" t="s" s="15">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17">
+    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17">
         <f>SUM(D2:D43)</f>
         <v>10563.19</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
+    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
     <sortCondition ref="B41"/>
@@ -2309,18 +2277,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8B7A49-5823-4EB3-ACA3-5B311B3AC383}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2332,7 +2300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -2344,7 +2312,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -2356,7 +2324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -2368,7 +2336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -2380,7 +2348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -2392,7 +2360,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -2404,7 +2372,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -2416,7 +2384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43845</v>
       </c>
@@ -2428,7 +2396,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43845</v>
       </c>
@@ -2440,7 +2408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -2452,7 +2420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -2464,7 +2432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -2478,7 +2446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -2492,7 +2460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>44031</v>
       </c>
@@ -2506,7 +2474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>44020</v>
       </c>
@@ -2520,7 +2488,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43845</v>
       </c>
@@ -2534,7 +2502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -2546,7 +2514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -2558,7 +2526,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -2572,126 +2540,132 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="16">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B21" t="s" s="16">
+      <c r="B21" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C21" t="s" s="16">
+      <c r="C21" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D21" t="s" s="16">
+      <c r="D21" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="16">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B22" t="s" s="16">
-        <v>151</v>
-      </c>
-      <c r="C22" t="s" s="16">
+      <c r="B22" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D22" t="s" s="16">
+      <c r="D22" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+    <row r="23" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16">
+        <v>2</v>
+      </c>
+      <c r="C23" s="16">
+        <v>3</v>
+      </c>
       <c r="D23" s="17">
         <f>SUM(D2:D20)</f>
         <v>2378</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2707,15 +2681,15 @@
       <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2731,7 +2705,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43846</v>
       </c>
@@ -2747,7 +2721,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43917</v>
       </c>
@@ -2763,7 +2737,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43917</v>
       </c>
@@ -2775,7 +2749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>43979</v>
       </c>
@@ -2791,7 +2765,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -2807,7 +2781,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -2819,7 +2793,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -2831,7 +2805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>43979</v>
       </c>
@@ -2847,7 +2821,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>43979</v>
       </c>
@@ -2863,7 +2837,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -2879,7 +2853,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>43958</v>
       </c>
@@ -2895,7 +2869,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>43972</v>
       </c>
@@ -2911,7 +2885,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -2927,7 +2901,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>43941</v>
       </c>
@@ -2943,7 +2917,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44020</v>
       </c>
@@ -2955,7 +2929,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>43972</v>
       </c>
@@ -2971,7 +2945,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43879</v>
       </c>
@@ -2983,7 +2957,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43845</v>
       </c>
@@ -2995,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43917</v>
       </c>
@@ -3007,7 +2981,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>43846</v>
       </c>
@@ -3019,7 +2993,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43846</v>
       </c>
@@ -3031,7 +3005,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>43845</v>
       </c>
@@ -3043,7 +3017,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44020</v>
       </c>
@@ -3055,7 +3029,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>43979</v>
       </c>
@@ -3071,7 +3045,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43941</v>
       </c>
@@ -3083,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43846</v>
       </c>
@@ -3095,7 +3069,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43846</v>
       </c>
@@ -3107,7 +3081,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43917</v>
       </c>
@@ -3119,7 +3093,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43917</v>
       </c>
@@ -3131,7 +3105,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>43941</v>
       </c>
@@ -3143,7 +3117,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>43941</v>
       </c>
@@ -3155,7 +3129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>43941</v>
       </c>
@@ -3167,7 +3141,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44034</v>
       </c>
@@ -3179,7 +3153,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -3191,7 +3165,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -3203,7 +3177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>43845</v>
       </c>
@@ -3219,7 +3193,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>43845</v>
       </c>
@@ -3235,7 +3209,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>43845</v>
       </c>
@@ -3247,7 +3221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>43845</v>
       </c>
@@ -3259,7 +3233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>43845</v>
       </c>
@@ -3271,7 +3245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>43845</v>
       </c>
@@ -3283,7 +3257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>43929</v>
       </c>
@@ -3299,7 +3273,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43845</v>
       </c>
@@ -3315,7 +3289,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>43979</v>
       </c>
@@ -3331,7 +3305,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>44012</v>
       </c>
@@ -3347,7 +3321,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>44020</v>
       </c>
@@ -3361,7 +3335,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>44020</v>
       </c>
@@ -3373,7 +3347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>44012</v>
       </c>
@@ -3389,35 +3363,35 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="16">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B50" t="s" s="16">
+      <c r="B50" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C50" t="s" s="16">
+      <c r="C50" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D50" t="s" s="16">
+      <c r="D50" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="16">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B51" t="s" s="16">
-        <v>141</v>
-      </c>
-      <c r="C51" t="s" s="16">
-        <v>152</v>
-      </c>
-      <c r="D51" t="s" s="16">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -3430,7 +3404,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3440,7 +3414,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3450,7 +3424,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3460,7 +3434,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3470,7 +3444,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3480,7 +3454,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3490,400 +3464,400 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="D134" s="1"/>
@@ -3907,15 +3881,15 @@
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3927,7 +3901,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -3939,7 +3913,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -3951,7 +3925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -3963,7 +3937,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -3977,7 +3951,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -3989,7 +3963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -4001,35 +3975,35 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="16">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B8" t="s" s="16">
+      <c r="B8" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C8" t="s" s="16">
+      <c r="C8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D8" t="s" s="16">
+      <c r="D8" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="16">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B9" t="s" s="16">
+      <c r="B9" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C9" t="s" s="16">
+      <c r="C9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D9" t="s" s="16">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -4038,412 +4012,412 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDC3F4-BE1F-4CBB-A609-B5D851D821D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F73EA9D-FB8A-473A-823E-8CE412783C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="151">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>27  julio</t>
+  </si>
+  <si>
+    <t>$150</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1242,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="A64:D64"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,7 +2067,20 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64"/>
+    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
     <row r="65">
       <c r="A65" t="s" s="15">
         <v>149</v>
@@ -2079,21 +2095,30 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17">
+    <row r="66">
+      <c r="A66" t="s" s="15">
+        <v>149</v>
+      </c>
+      <c r="B66" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D66" t="s" s="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="17">
         <f>SUM(D2:D43)</f>
         <v>10563.19</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
@@ -2253,16 +2278,8 @@
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
+    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F73EA9D-FB8A-473A-823E-8CE412783C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280A01CE-30B2-43C6-8541-79C1068D689C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="153">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -476,6 +476,12 @@
   </si>
   <si>
     <t>$150</t>
+  </si>
+  <si>
+    <t>Martillito</t>
+  </si>
+  <si>
+    <t>$200</t>
   </si>
 </sst>
 </file>
@@ -1241,16 +1247,16 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:D64"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2081,84 +2087,156 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s" s="15">
+    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B65" t="s" s="15">
+      <c r="B65" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C65" t="s" s="15">
+      <c r="C65" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D65" t="s" s="15">
+      <c r="D65" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="15">
+    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B66" t="s" s="15">
+      <c r="B66" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C66" t="s" s="15">
+      <c r="C66" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D66" t="s" s="15">
-        <v>116</v>
+      <c r="D66" s="15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17">
-        <f>SUM(D2:D43)</f>
+      <c r="A67" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="5">
+        <f xml:space="preserve"> SUM(D2:D74)</f>
         <v>10563.19</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
@@ -2253,34 +2331,14 @@
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
     <sortCondition ref="B41"/>
@@ -2300,9 +2358,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2700,10 +2758,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3900,10 +3958,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280A01CE-30B2-43C6-8541-79C1068D689C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D511DD-FA33-4DB8-B8B8-262D8D754B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HERRAMIENTAS" sheetId="4" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="MOBILIARIO" sheetId="1" r:id="rId3"/>
     <sheet name="EQUIPO DE LIMPIEZA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="154">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>$200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$850 </t>
   </si>
 </sst>
 </file>
@@ -1246,17 +1249,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2232,7 +2235,7 @@
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="5">
-        <f xml:space="preserve"> SUM(D2:D74)</f>
+        <f xml:space="preserve">SUM(D2:D74)</f>
         <v>10563.19</v>
       </c>
     </row>
@@ -2353,14 +2356,14 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2643,22 +2646,29 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>1</v>
-      </c>
-      <c r="B23" s="16">
-        <v>2</v>
-      </c>
-      <c r="C23" s="16">
-        <v>3</v>
-      </c>
-      <c r="D23" s="17">
-        <f>SUM(D2:D20)</f>
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23">
+      <c r="A23" t="s" s="16">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s" s="16">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s" s="16">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s" s="16">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" t="n">
+        <f>SUM(D2:D23)</f>
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="25" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2752,16 +2762,16 @@
   <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3951,17 +3961,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="156">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -485,6 +485,12 @@
   </si>
   <si>
     <t xml:space="preserve">$850 </t>
+  </si>
+  <si>
+    <t>$900</t>
+  </si>
+  <si>
+    <t>$8900</t>
   </si>
 </sst>
 </file>
@@ -2230,21 +2236,30 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="5">
-        <f xml:space="preserve">SUM(D2:D74)</f>
-        <v>10563.19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75">
+      <c r="A75" t="s" s="15">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s" s="15">
+        <v>126</v>
+      </c>
+      <c r="C75" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="D75" t="s" s="15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" t="n">
+        <f>SUM(D2:D75)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
@@ -2660,17 +2675,43 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" t="n">
-        <f>SUM(D2:D23)</f>
+    <row r="24">
+      <c r="A24" t="s" s="16">
+        <v>149</v>
+      </c>
+      <c r="B24" t="s" s="16">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s" s="16">
+        <v>127</v>
+      </c>
+      <c r="D24" t="s" s="16">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="16">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s" s="16">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s" s="16">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s" s="16">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" t="n">
+        <f>SUM(D2:D25)</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3476,30 +3517,34 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17">
-        <f>SUM(D2:D49)</f>
-        <v>19953.989999999998</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+    <row r="52">
+      <c r="A52" t="s" s="16">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s" s="16">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s" s="16">
+        <v>127</v>
+      </c>
+      <c r="D52" t="s" s="16">
+        <v>116</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" t="n">
+        <f>SUM(D2:D52)</f>
+        <v>0.0</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4088,21 +4133,30 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17">
-        <f>SUM(D2:D7)</f>
-        <v>525</v>
+    <row r="10">
+      <c r="A10" t="s" s="16">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s" s="16">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s" s="16">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" t="n">
+        <f>SUM(D2:D10)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -18,12 +18,12 @@
     <sheet name="MOBILIARIO" sheetId="1" r:id="rId3"/>
     <sheet name="EQUIPO DE LIMPIEZA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="153">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -1253,10 +1253,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2227,21 +2227,30 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="5">
-        <f xml:space="preserve"> SUM(D2:D74)</f>
-        <v>10563.19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" t="n">
+        <f>SUM(D2:D75)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
@@ -2358,9 +2367,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2758,10 +2767,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3958,10 +3967,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D511DD-FA33-4DB8-B8B8-262D8D754B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C29CA3-820E-42D7-8CF3-2C0C6F791BC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
     <sheet name="MOBILIARIO" sheetId="1" r:id="rId3"/>
     <sheet name="EQUIPO DE LIMPIEZA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" fullCalcOnLoad="true"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="153">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Aromatizante para trapear</t>
   </si>
   <si>
-    <t>$50</t>
-  </si>
-  <si>
     <t>Equipo y Mobiliario</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t>$800</t>
   </si>
   <si>
-    <t>$75</t>
-  </si>
-  <si>
     <t>27  julio</t>
   </si>
   <si>
@@ -488,16 +482,14 @@
   </si>
   <si>
     <t>$900</t>
-  </si>
-  <si>
-    <t>$8900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -636,7 +628,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1262,10 +1254,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1821,13 +1813,13 @@
         <v>113</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1835,13 +1827,13 @@
         <v>113</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="D46" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1849,414 +1841,414 @@
         <v>113</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>127</v>
-      </c>
       <c r="D55" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="D56" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="D57" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="D59" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="D60" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B61" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="D61" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="D62" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="D63" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B65" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="D65" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B66" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="D66" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B67" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="D67" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B68" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="D68" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="D69" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B70" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="D70" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="15" t="s">
-        <v>151</v>
-      </c>
       <c r="C72" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="D73" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="D74" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D74" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="15">
-        <v>149</v>
-      </c>
-      <c r="B75" t="s" s="15">
+    </row>
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C75" t="s" s="15">
-        <v>127</v>
-      </c>
-      <c r="D75" t="s" s="15">
-        <v>147</v>
+      <c r="D75" s="15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
-      <c r="D76" t="n">
+      <c r="D76">
         <f>SUM(D2:D75)</f>
-        <v>0.0</v>
+        <v>10563.19</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2376,9 +2368,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2649,67 +2641,67 @@
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="16">
-        <v>149</v>
-      </c>
-      <c r="B23" t="s" s="16">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s" s="16">
-        <v>127</v>
-      </c>
-      <c r="D23" t="s" s="16">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="16">
-        <v>149</v>
-      </c>
-      <c r="B24" t="s" s="16">
+      <c r="D23" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C24" t="s" s="16">
-        <v>127</v>
-      </c>
-      <c r="D24" t="s" s="16">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="16">
-        <v>149</v>
-      </c>
-      <c r="B25" t="s" s="16">
+      <c r="D24" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C25" t="s" s="16">
-        <v>127</v>
-      </c>
-      <c r="D25" t="s" s="16">
-        <v>139</v>
+      <c r="D25" s="16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" t="n">
+      <c r="D26">
         <f>SUM(D2:D25)</f>
-        <v>0.0</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2809,10 +2801,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3505,29 +3497,29 @@
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="16" t="s">
+    </row>
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="16">
-        <v>149</v>
-      </c>
-      <c r="B52" t="s" s="16">
+      <c r="B52" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C52" t="s" s="16">
-        <v>127</v>
-      </c>
-      <c r="D52" t="s" s="16">
+      <c r="D52" s="16" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3535,9 +3527,9 @@
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
-      <c r="D53" t="n">
+      <c r="D53">
         <f>SUM(D2:D52)</f>
-        <v>0.0</v>
+        <v>19953.989999999998</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -4008,15 +4000,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -4115,45 +4107,45 @@
       <c r="C8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>125</v>
+      <c r="D8" s="17">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="16">
-        <v>149</v>
-      </c>
-      <c r="B10" t="s" s="16">
         <v>126</v>
       </c>
-      <c r="C10" t="s" s="16">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s" s="16">
-        <v>155</v>
+      <c r="D9" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="17">
+        <v>8900</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" t="n">
-        <f>SUM(D2:D10)</f>
-        <v>0.0</v>
+      <c r="D11" s="5">
+        <f xml:space="preserve"> SUM(D2:D10)</f>
+        <v>9550</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="154">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>$200</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
 </sst>
 </file>
@@ -2241,46 +2244,100 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" t="n">
-        <f>SUM(D2:D75)</f>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="15"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" t="n">
+        <f>SUM(D2:D81)</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="157">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -485,6 +485,15 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>MARTILLO</t>
+  </si>
+  <si>
+    <t>ROJO</t>
+  </si>
+  <si>
+    <t>$ 124</t>
   </si>
 </sst>
 </file>
@@ -2328,36 +2337,72 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" t="n">
-        <f>SUM(D2:D81)</f>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="15"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" t="n">
+        <f>SUM(D2:D85)</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280A01CE-30B2-43C6-8541-79C1068D689C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A807F0D4-195C-4D55-B911-B0D930CB5D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HERRAMIENTAS" sheetId="4" r:id="rId1"/>
@@ -18,12 +18,22 @@
     <sheet name="MOBILIARIO" sheetId="1" r:id="rId3"/>
     <sheet name="EQUIPO DE LIMPIEZA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -367,15 +377,6 @@
     <t>22  julio</t>
   </si>
   <si>
-    <t>Martillo</t>
-  </si>
-  <si>
-    <t>Martillo de Goma</t>
-  </si>
-  <si>
-    <t>$8500</t>
-  </si>
-  <si>
     <t>Toallitas</t>
   </si>
   <si>
@@ -385,15 +386,6 @@
     <t>$100</t>
   </si>
   <si>
-    <t>Silla Pro</t>
-  </si>
-  <si>
-    <t>Silla gamer</t>
-  </si>
-  <si>
-    <t>$1000</t>
-  </si>
-  <si>
     <t>Fabuloso</t>
   </si>
   <si>
@@ -403,97 +395,28 @@
     <t>$50</t>
   </si>
   <si>
-    <t>Equipo y Mobiliario</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
-    <t xml:space="preserve">$ </t>
-  </si>
-  <si>
-    <t>martillo</t>
-  </si>
-  <si>
-    <t>rojo</t>
-  </si>
-  <si>
-    <t>$ 123</t>
-  </si>
-  <si>
-    <t>23  julio</t>
-  </si>
-  <si>
     <t>24  julio</t>
   </si>
   <si>
-    <t>Martillo Nuevesini</t>
-  </si>
-  <si>
-    <t>Martillo para golpear bici</t>
-  </si>
-  <si>
-    <t>$250</t>
-  </si>
-  <si>
-    <t>Desarmador de estrella</t>
-  </si>
-  <si>
-    <t>Desarmador tipo estrella</t>
-  </si>
-  <si>
     <t>$500</t>
   </si>
   <si>
-    <t>Equisde</t>
-  </si>
-  <si>
-    <t>$8000</t>
-  </si>
-  <si>
-    <t>Equis</t>
-  </si>
-  <si>
-    <t>Dududu</t>
-  </si>
-  <si>
-    <t>$1500</t>
-  </si>
-  <si>
     <t>Silla</t>
   </si>
   <si>
-    <t>Jeje</t>
-  </si>
-  <si>
-    <t>$800</t>
-  </si>
-  <si>
     <t>$75</t>
   </si>
   <si>
-    <t>27  julio</t>
-  </si>
-  <si>
-    <t>$150</t>
-  </si>
-  <si>
-    <t>Martillito</t>
-  </si>
-  <si>
-    <t>$200</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>MARTILLO</t>
-  </si>
-  <si>
-    <t>ROJO</t>
-  </si>
-  <si>
-    <t>$ 124</t>
+    <t>28  julio</t>
+  </si>
+  <si>
+    <t>PENDEJADAS</t>
+  </si>
+  <si>
+    <t>10235</t>
   </si>
 </sst>
 </file>
@@ -645,7 +568,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -936,7 +859,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1259,11 +1182,11 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
@@ -1271,7 +1194,7 @@
     <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1283,7 +1206,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -1295,7 +1218,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -1307,7 +1230,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>43871</v>
       </c>
@@ -1319,7 +1242,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -1333,7 +1256,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -1345,7 +1268,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -1357,7 +1280,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>43987</v>
       </c>
@@ -1369,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>43845</v>
       </c>
@@ -1381,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>43845</v>
       </c>
@@ -1393,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>43845</v>
       </c>
@@ -1405,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -1417,7 +1340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -1431,7 +1354,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -1443,7 +1366,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>43917</v>
       </c>
@@ -1455,7 +1378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>43845</v>
       </c>
@@ -1467,7 +1390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>43845</v>
       </c>
@@ -1479,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -1491,7 +1414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -1503,7 +1426,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -1515,7 +1438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>43845</v>
       </c>
@@ -1527,7 +1450,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>43845</v>
       </c>
@@ -1539,7 +1462,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>43880</v>
       </c>
@@ -1551,7 +1474,7 @@
         <v>496.55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>43917</v>
       </c>
@@ -1563,7 +1486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>43850</v>
       </c>
@@ -1575,7 +1498,7 @@
         <v>121.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>43845</v>
       </c>
@@ -1587,7 +1510,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>43845</v>
       </c>
@@ -1599,7 +1522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>43845</v>
       </c>
@@ -1611,7 +1534,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>43845</v>
       </c>
@@ -1625,7 +1548,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>43845</v>
       </c>
@@ -1637,7 +1560,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>43850</v>
       </c>
@@ -1649,7 +1572,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>43845</v>
       </c>
@@ -1661,7 +1584,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>43845</v>
       </c>
@@ -1673,7 +1596,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>43845</v>
       </c>
@@ -1685,7 +1608,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -1698,7 +1621,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -1711,7 +1634,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
         <v>43979</v>
       </c>
@@ -1724,7 +1647,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>43871</v>
       </c>
@@ -1737,7 +1660,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>43871</v>
       </c>
@@ -1750,7 +1673,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>43871</v>
       </c>
@@ -1763,7 +1686,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
         <v>43845</v>
       </c>
@@ -1778,7 +1701,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>44012</v>
       </c>
@@ -1793,7 +1716,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>44012</v>
       </c>
@@ -1805,653 +1728,75 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="15" t="s">
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C44" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B75" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C75" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D75" t="s" s="0">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B76" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C76" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D76" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B77" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C77" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D77" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B78" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C78" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D78" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B79" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C79" t="s" s="0">
-        <v>153</v>
-      </c>
-      <c r="D79" t="s" s="0">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B80" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C80" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D80" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B81" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C81" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D81" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B82" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C82" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D82" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B83" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C83" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D83" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B84" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C84" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D84" t="s" s="0">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="B85" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="C85" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="D85" t="s" s="0">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" t="n">
-        <f>SUM(D2:D85)</f>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" t="n">
+        <f>SUM(D2:D44)</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition ref="B41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2467,14 +1812,14 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="2" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2486,7 +1831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -2498,7 +1843,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -2510,7 +1855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -2522,7 +1867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -2534,7 +1879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -2546,7 +1891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -2558,7 +1903,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -2570,7 +1915,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>43845</v>
       </c>
@@ -2582,7 +1927,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>43845</v>
       </c>
@@ -2594,7 +1939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -2606,7 +1951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -2618,7 +1963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -2632,7 +1977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -2646,7 +1991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>44031</v>
       </c>
@@ -2660,7 +2005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>44020</v>
       </c>
@@ -2674,7 +2019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>43845</v>
       </c>
@@ -2688,7 +2033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -2700,7 +2045,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -2712,7 +2057,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -2726,35 +2071,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="16">
         <v>1</v>
       </c>
@@ -2769,89 +2114,89 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2860,14 +2205,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
@@ -2875,7 +2220,7 @@
     <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2891,7 +2236,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>43846</v>
       </c>
@@ -2907,7 +2252,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43917</v>
       </c>
@@ -2923,7 +2268,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>43917</v>
       </c>
@@ -2935,7 +2280,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>43979</v>
       </c>
@@ -2951,7 +2296,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -2967,7 +2312,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -2979,7 +2324,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -2991,7 +2336,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>43979</v>
       </c>
@@ -3007,7 +2352,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>43979</v>
       </c>
@@ -3023,7 +2368,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -3039,7 +2384,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>43958</v>
       </c>
@@ -3055,7 +2400,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>43972</v>
       </c>
@@ -3071,7 +2416,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -3087,7 +2432,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>43941</v>
       </c>
@@ -3103,7 +2448,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>44020</v>
       </c>
@@ -3115,7 +2460,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>43972</v>
       </c>
@@ -3131,7 +2476,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>43879</v>
       </c>
@@ -3143,7 +2488,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>43845</v>
       </c>
@@ -3155,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>43917</v>
       </c>
@@ -3167,7 +2512,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>43846</v>
       </c>
@@ -3179,7 +2524,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>43846</v>
       </c>
@@ -3191,7 +2536,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>43845</v>
       </c>
@@ -3203,7 +2548,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>44020</v>
       </c>
@@ -3215,7 +2560,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>43979</v>
       </c>
@@ -3231,7 +2576,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>43941</v>
       </c>
@@ -3243,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>43846</v>
       </c>
@@ -3255,7 +2600,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>43846</v>
       </c>
@@ -3267,7 +2612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>43917</v>
       </c>
@@ -3279,7 +2624,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>43917</v>
       </c>
@@ -3291,7 +2636,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>43941</v>
       </c>
@@ -3303,7 +2648,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
         <v>43941</v>
       </c>
@@ -3315,7 +2660,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
         <v>43941</v>
       </c>
@@ -3327,7 +2672,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="9">
         <v>44034</v>
       </c>
@@ -3339,7 +2684,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -3351,7 +2696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -3363,7 +2708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>43845</v>
       </c>
@@ -3379,7 +2724,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>43845</v>
       </c>
@@ -3395,7 +2740,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>43845</v>
       </c>
@@ -3407,7 +2752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>43845</v>
       </c>
@@ -3419,7 +2764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>43845</v>
       </c>
@@ -3431,7 +2776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>43845</v>
       </c>
@@ -3443,7 +2788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>43929</v>
       </c>
@@ -3459,7 +2804,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>43845</v>
       </c>
@@ -3475,7 +2820,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
         <v>43979</v>
       </c>
@@ -3491,7 +2836,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
         <v>44012</v>
       </c>
@@ -3507,7 +2852,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
         <v>44020</v>
       </c>
@@ -3521,7 +2866,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
         <v>44020</v>
       </c>
@@ -3533,7 +2878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="9">
         <v>44012</v>
       </c>
@@ -3549,48 +2894,29 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17">
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17">
         <f>SUM(D2:D49)</f>
         <v>19953.989999999998</v>
       </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3600,7 +2926,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3610,7 +2936,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3620,7 +2946,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3630,7 +2956,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3640,7 +2966,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3650,408 +2976,393 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="D134" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
-    <sortCondition ref="B2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4067,7 +3378,7 @@
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
@@ -4075,7 +3386,7 @@
     <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4087,7 +3398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -4099,7 +3410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -4111,7 +3422,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -4123,7 +3434,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -4137,7 +3448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -4149,7 +3460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -4161,35 +3472,35 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -4198,412 +3509,412 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -417,6 +417,15 @@
   </si>
   <si>
     <t>10235</t>
+  </si>
+  <si>
+    <t>29  julio</t>
+  </si>
+  <si>
+    <t>Equipo y Mobiliario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ </t>
   </si>
 </sst>
 </file>
@@ -426,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,8 +467,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +526,26 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
   </fills>
@@ -518,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -564,6 +623,21 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1206,7 +1280,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -1218,7 +1292,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -1230,7 +1304,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>43871</v>
       </c>
@@ -1242,7 +1316,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -1256,7 +1330,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -1268,7 +1342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -1280,7 +1354,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>43987</v>
       </c>
@@ -1292,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>43845</v>
       </c>
@@ -1304,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>43845</v>
       </c>
@@ -1316,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>43845</v>
       </c>
@@ -1328,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -1340,7 +1414,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -1354,7 +1428,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -1366,7 +1440,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>43917</v>
       </c>
@@ -1378,7 +1452,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>43845</v>
       </c>
@@ -1390,7 +1464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>43845</v>
       </c>
@@ -1402,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -1414,7 +1488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -1426,7 +1500,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -1438,7 +1512,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>43845</v>
       </c>
@@ -1450,7 +1524,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>43845</v>
       </c>
@@ -1462,7 +1536,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>43880</v>
       </c>
@@ -1474,7 +1548,7 @@
         <v>496.55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>43917</v>
       </c>
@@ -1486,7 +1560,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>43850</v>
       </c>
@@ -1498,7 +1572,7 @@
         <v>121.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>43845</v>
       </c>
@@ -1510,7 +1584,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>43845</v>
       </c>
@@ -1522,7 +1596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>43845</v>
       </c>
@@ -1534,7 +1608,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>43845</v>
       </c>
@@ -1548,7 +1622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>43845</v>
       </c>
@@ -1560,7 +1634,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>43850</v>
       </c>
@@ -1572,7 +1646,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>43845</v>
       </c>
@@ -1584,7 +1658,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>43845</v>
       </c>
@@ -1596,7 +1670,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>43845</v>
       </c>
@@ -1608,7 +1682,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -1621,7 +1695,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -1634,7 +1708,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
         <v>43979</v>
       </c>
@@ -1647,7 +1721,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>43871</v>
       </c>
@@ -1660,7 +1734,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>43871</v>
       </c>
@@ -1673,7 +1747,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>43871</v>
       </c>
@@ -1686,7 +1760,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
         <v>43845</v>
       </c>
@@ -1701,7 +1775,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>44012</v>
       </c>
@@ -1716,7 +1790,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>44012</v>
       </c>
@@ -1728,7 +1802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="28.5" customHeight="true">
       <c r="A44" t="s" s="0">
         <v>125</v>
       </c>
@@ -1742,19 +1816,28 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" t="n">
-        <f>SUM(D2:D44)</f>
+    <row r="45" ht="28.5" customHeight="true">
+      <c r="A45" t="s" s="18">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s" s="19">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s" s="20">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s" s="21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" t="n" s="22">
+        <f>SUM(D2:D45)</f>
         <v>0.0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A807F0D4-195C-4D55-B911-B0D930CB5D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ACD213-F36D-47B0-9A3E-42E1FB544ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HERRAMIENTAS" sheetId="4" r:id="rId1"/>
@@ -18,22 +18,12 @@
     <sheet name="MOBILIARIO" sheetId="1" r:id="rId3"/>
     <sheet name="EQUIPO DE LIMPIEZA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -408,24 +398,6 @@
   </si>
   <si>
     <t>$75</t>
-  </si>
-  <si>
-    <t>28  julio</t>
-  </si>
-  <si>
-    <t>PENDEJADAS</t>
-  </si>
-  <si>
-    <t>10235</t>
-  </si>
-  <si>
-    <t>29  julio</t>
-  </si>
-  <si>
-    <t>Equipo y Mobiliario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ </t>
   </si>
 </sst>
 </file>
@@ -435,7 +407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,37 +440,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,23 +477,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="22B473"/>
+        <fgColor rgb="FF22B473"/>
       </patternFill>
     </fill>
   </fills>
@@ -577,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -624,25 +557,13 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -933,7 +854,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1257,18 +1178,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1280,7 +1201,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -1292,7 +1213,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -1304,7 +1225,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>43871</v>
       </c>
@@ -1316,7 +1237,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -1330,7 +1251,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -1342,7 +1263,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -1354,7 +1275,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43987</v>
       </c>
@@ -1366,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43845</v>
       </c>
@@ -1378,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43845</v>
       </c>
@@ -1390,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43845</v>
       </c>
@@ -1402,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -1414,7 +1335,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -1428,7 +1349,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -1440,7 +1361,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>43917</v>
       </c>
@@ -1452,7 +1373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43845</v>
       </c>
@@ -1464,7 +1385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43845</v>
       </c>
@@ -1476,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -1488,7 +1409,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -1500,7 +1421,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -1512,7 +1433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>43845</v>
       </c>
@@ -1524,7 +1445,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43845</v>
       </c>
@@ -1536,7 +1457,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>43880</v>
       </c>
@@ -1548,7 +1469,7 @@
         <v>496.55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>43917</v>
       </c>
@@ -1560,7 +1481,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>43850</v>
       </c>
@@ -1572,7 +1493,7 @@
         <v>121.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>43845</v>
       </c>
@@ -1584,7 +1505,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43845</v>
       </c>
@@ -1596,7 +1517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43845</v>
       </c>
@@ -1608,7 +1529,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43845</v>
       </c>
@@ -1622,7 +1543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43845</v>
       </c>
@@ -1634,7 +1555,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>43850</v>
       </c>
@@ -1646,7 +1567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43845</v>
       </c>
@@ -1658,7 +1579,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43845</v>
       </c>
@@ -1670,7 +1591,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43845</v>
       </c>
@@ -1682,7 +1603,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -1695,7 +1616,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -1708,7 +1629,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>43979</v>
       </c>
@@ -1721,7 +1642,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>43871</v>
       </c>
@@ -1734,7 +1655,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>43871</v>
       </c>
@@ -1747,7 +1668,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>43871</v>
       </c>
@@ -1760,7 +1681,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>43845</v>
       </c>
@@ -1775,7 +1696,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>44012</v>
       </c>
@@ -1790,7 +1711,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>44012</v>
       </c>
@@ -1802,82 +1723,54 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" ht="28.5" customHeight="true">
-      <c r="A44" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" ht="28.5" customHeight="true">
-      <c r="A45" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="B45" t="s" s="19">
-        <v>129</v>
-      </c>
-      <c r="C45" t="s" s="20">
-        <v>120</v>
-      </c>
-      <c r="D45" t="s" s="21">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" t="n" s="22">
-        <f>SUM(D2:D45)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="18">
+        <f>SUM(D2:D43)</f>
+        <v>10563.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition ref="B41"/>
@@ -1895,14 +1788,14 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1914,7 +1807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -1926,7 +1819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -1938,7 +1831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -1950,7 +1843,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -1962,7 +1855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -1974,7 +1867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -1986,7 +1879,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -1998,7 +1891,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43845</v>
       </c>
@@ -2010,7 +1903,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43845</v>
       </c>
@@ -2022,7 +1915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -2034,7 +1927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -2046,7 +1939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -2060,7 +1953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -2074,7 +1967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>44031</v>
       </c>
@@ -2088,7 +1981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>44020</v>
       </c>
@@ -2102,7 +1995,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43845</v>
       </c>
@@ -2116,7 +2009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -2128,7 +2021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -2140,7 +2033,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -2154,7 +2047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>113</v>
       </c>
@@ -2168,7 +2061,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>121</v>
       </c>
@@ -2182,7 +2075,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>1</v>
       </c>
@@ -2197,89 +2090,89 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2295,15 +2188,15 @@
       <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2319,7 +2212,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43846</v>
       </c>
@@ -2335,7 +2228,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43917</v>
       </c>
@@ -2351,7 +2244,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43917</v>
       </c>
@@ -2363,7 +2256,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>43979</v>
       </c>
@@ -2379,7 +2272,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -2395,7 +2288,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -2407,7 +2300,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -2419,7 +2312,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>43979</v>
       </c>
@@ -2435,7 +2328,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>43979</v>
       </c>
@@ -2451,7 +2344,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -2467,7 +2360,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>43958</v>
       </c>
@@ -2483,7 +2376,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>43972</v>
       </c>
@@ -2499,7 +2392,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -2515,7 +2408,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>43941</v>
       </c>
@@ -2531,7 +2424,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44020</v>
       </c>
@@ -2543,7 +2436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>43972</v>
       </c>
@@ -2559,7 +2452,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43879</v>
       </c>
@@ -2571,7 +2464,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43845</v>
       </c>
@@ -2583,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43917</v>
       </c>
@@ -2595,7 +2488,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>43846</v>
       </c>
@@ -2607,7 +2500,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43846</v>
       </c>
@@ -2619,7 +2512,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>43845</v>
       </c>
@@ -2631,7 +2524,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44020</v>
       </c>
@@ -2643,7 +2536,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>43979</v>
       </c>
@@ -2659,7 +2552,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43941</v>
       </c>
@@ -2671,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43846</v>
       </c>
@@ -2683,7 +2576,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43846</v>
       </c>
@@ -2695,7 +2588,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43917</v>
       </c>
@@ -2707,7 +2600,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43917</v>
       </c>
@@ -2719,7 +2612,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>43941</v>
       </c>
@@ -2731,7 +2624,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>43941</v>
       </c>
@@ -2743,7 +2636,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>43941</v>
       </c>
@@ -2755,7 +2648,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>44034</v>
       </c>
@@ -2767,7 +2660,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -2779,7 +2672,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -2791,7 +2684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>43845</v>
       </c>
@@ -2807,7 +2700,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>43845</v>
       </c>
@@ -2823,7 +2716,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>43845</v>
       </c>
@@ -2835,7 +2728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>43845</v>
       </c>
@@ -2847,7 +2740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>43845</v>
       </c>
@@ -2859,7 +2752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>43845</v>
       </c>
@@ -2871,7 +2764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>43929</v>
       </c>
@@ -2887,7 +2780,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43845</v>
       </c>
@@ -2903,7 +2796,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>43979</v>
       </c>
@@ -2919,7 +2812,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>44012</v>
       </c>
@@ -2935,7 +2828,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>44020</v>
       </c>
@@ -2949,7 +2842,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>44020</v>
       </c>
@@ -2961,7 +2854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>44012</v>
       </c>
@@ -2977,7 +2870,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -2986,10 +2879,10 @@
         <v>19953.989999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C51"/>
     </row>
-    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2999,7 +2892,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3009,7 +2902,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3019,7 +2912,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3029,7 +2922,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3039,7 +2932,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3049,7 +2942,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3059,388 +2952,388 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="D132" s="1"/>
@@ -3461,15 +3354,15 @@
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3481,7 +3374,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -3493,7 +3386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -3505,7 +3398,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -3517,7 +3410,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -3531,7 +3424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -3543,7 +3436,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -3555,7 +3448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>113</v>
       </c>
@@ -3569,7 +3462,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>121</v>
       </c>
@@ -3583,7 +3476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -3592,412 +3485,412 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A807F0D4-195C-4D55-B911-B0D930CB5D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050D87F8-5761-4418-811F-B5DD81C59863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3083" yWindow="0" windowWidth="21600" windowHeight="11498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2948" yWindow="1553" windowWidth="21727" windowHeight="11497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HERRAMIENTAS" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="MOBILIARIO" sheetId="1" r:id="rId3"/>
     <sheet name="EQUIPO DE LIMPIEZA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="135">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -410,22 +410,34 @@
     <t>$75</t>
   </si>
   <si>
-    <t>28  julio</t>
-  </si>
-  <si>
-    <t>PENDEJADAS</t>
-  </si>
-  <si>
-    <t>10235</t>
-  </si>
-  <si>
-    <t>29  julio</t>
+    <t>30  julio</t>
   </si>
   <si>
     <t>Equipo y Mobiliario</t>
   </si>
   <si>
-    <t xml:space="preserve">$ </t>
+    <t>$12</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20000 </t>
+  </si>
+  <si>
+    <t>$ 1000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>$10000</t>
   </si>
 </sst>
 </file>
@@ -435,7 +447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +478,222 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -529,6 +757,11 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor rgb="EEEEEE"/>
       </patternFill>
@@ -543,13 +776,8 @@
         <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="22B473"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -572,12 +800,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -624,19 +870,127 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,11 +1607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1803,70 +2157,107 @@
       </c>
     </row>
     <row r="44" ht="28.5" customHeight="true">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s" s="19">
         <v>125</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s" s="20">
         <v>126</v>
       </c>
-      <c r="C44" t="s" s="0">
+      <c r="C44" t="s" s="21">
         <v>120</v>
       </c>
-      <c r="D44" t="s" s="0">
+      <c r="D44" t="s" s="22">
         <v>127</v>
       </c>
     </row>
     <row r="45" ht="28.5" customHeight="true">
-      <c r="A45" t="s" s="18">
-        <v>128</v>
-      </c>
-      <c r="B45" t="s" s="19">
-        <v>129</v>
-      </c>
-      <c r="C45" t="s" s="20">
+      <c r="A45" t="s" s="34">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s" s="35">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s" s="36">
         <v>120</v>
       </c>
-      <c r="D45" t="s" s="21">
+      <c r="D45" t="s" s="37">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" t="n" s="22">
-        <f>SUM(D2:D45)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" ht="28.5" customHeight="true">
+      <c r="A46" t="s" s="39">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s" s="40">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s" s="41">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s" s="42">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" ht="28.5" customHeight="true">
+      <c r="A47" t="n" s="44">
+        <v>125</v>
+      </c>
+      <c r="B47" t="n" s="45">
+        <v>126</v>
+      </c>
+      <c r="C47" t="n" s="46">
+        <v>120</v>
+      </c>
+      <c r="D47" t="n" s="47">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" ht="28.5" customHeight="true">
+      <c r="A48" t="n" s="49">
+        <v>125</v>
+      </c>
+      <c r="B48" t="n" s="50">
+        <v>126</v>
+      </c>
+      <c r="C48" t="n" s="51">
+        <v>120</v>
+      </c>
+      <c r="D48" t="n" s="52">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" ht="28.5" customHeight="true">
+      <c r="A49" t="n" s="54">
+        <v>125</v>
+      </c>
+      <c r="B49" t="n" s="55">
+        <v>126</v>
+      </c>
+      <c r="C49" t="n" s="56">
+        <v>120</v>
+      </c>
+      <c r="D49" t="n" s="57">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" t="n" s="58">
+        <v>10962.19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
     </row>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1876,8 +2267,6 @@
     <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition ref="B41"/>
@@ -2192,9 +2581,9 @@
       <c r="C23" s="16">
         <v>3</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="17" t="n">
         <f>SUM(D2:D20)</f>
-        <v>2378</v>
+        <v>2378.0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2981,7 +3370,7 @@
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
-      <c r="D50" s="17">
+      <c r="D50" s="17" t="n">
         <f>SUM(D2:D49)</f>
         <v>19953.989999999998</v>
       </c>
@@ -3587,9 +3976,9 @@
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="17">
+      <c r="D10" s="17" t="n">
         <f>SUM(D2:D7)</f>
-        <v>525</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050D87F8-5761-4418-811F-B5DD81C59863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCBFF9C-0CD3-4F75-B58F-155A17D4B091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2948" yWindow="1553" windowWidth="21727" windowHeight="11497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2948" yWindow="1553" windowWidth="21727" windowHeight="11497" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HERRAMIENTAS" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -377,15 +377,6 @@
     <t>22  julio</t>
   </si>
   <si>
-    <t>Toallitas</t>
-  </si>
-  <si>
-    <t>Toallas para limpiar</t>
-  </si>
-  <si>
-    <t>$100</t>
-  </si>
-  <si>
     <t>Fabuloso</t>
   </si>
   <si>
@@ -401,12 +392,6 @@
     <t>24  julio</t>
   </si>
   <si>
-    <t>$500</t>
-  </si>
-  <si>
-    <t>Silla</t>
-  </si>
-  <si>
     <t>$75</t>
   </si>
   <si>
@@ -419,25 +404,19 @@
     <t>$12</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20000 </t>
-  </si>
-  <si>
     <t>$ 1000</t>
   </si>
   <si>
     <t>20000</t>
   </si>
   <si>
-    <t>40000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>$10000</t>
+    <t>taladro</t>
+  </si>
+  <si>
+    <t>amarillo</t>
+  </si>
+  <si>
+    <t>$200000</t>
   </si>
 </sst>
 </file>
@@ -447,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,136 +465,268 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -762,12 +873,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
@@ -777,7 +888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -797,6 +908,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -870,127 +1011,193 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,9 +1816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1634,7 +1841,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -1646,7 +1853,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -1658,7 +1865,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>43871</v>
       </c>
@@ -1670,7 +1877,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -1684,7 +1891,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -1696,7 +1903,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -1708,7 +1915,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>43987</v>
       </c>
@@ -1720,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>43845</v>
       </c>
@@ -1732,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>43845</v>
       </c>
@@ -1744,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>43845</v>
       </c>
@@ -1756,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -1768,7 +1975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -1782,7 +1989,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -1794,7 +2001,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>43917</v>
       </c>
@@ -1806,7 +2013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>43845</v>
       </c>
@@ -1818,7 +2025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>43845</v>
       </c>
@@ -1830,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -1842,7 +2049,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -1854,7 +2061,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -1866,7 +2073,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>43845</v>
       </c>
@@ -1878,7 +2085,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>43845</v>
       </c>
@@ -1890,7 +2097,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>43880</v>
       </c>
@@ -1902,7 +2109,7 @@
         <v>496.55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>43917</v>
       </c>
@@ -1914,7 +2121,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>43850</v>
       </c>
@@ -1926,7 +2133,7 @@
         <v>121.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>43845</v>
       </c>
@@ -1938,7 +2145,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>43845</v>
       </c>
@@ -1950,7 +2157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>43845</v>
       </c>
@@ -1962,7 +2169,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>43845</v>
       </c>
@@ -1976,7 +2183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>43845</v>
       </c>
@@ -1988,7 +2195,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>43850</v>
       </c>
@@ -2000,7 +2207,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>43845</v>
       </c>
@@ -2012,7 +2219,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>43845</v>
       </c>
@@ -2024,7 +2231,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>43845</v>
       </c>
@@ -2036,7 +2243,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -2049,7 +2256,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -2062,7 +2269,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
         <v>43979</v>
       </c>
@@ -2075,7 +2282,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>43871</v>
       </c>
@@ -2088,7 +2295,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>43871</v>
       </c>
@@ -2101,7 +2308,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>43871</v>
       </c>
@@ -2114,7 +2321,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
         <v>43845</v>
       </c>
@@ -2129,7 +2336,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>44012</v>
       </c>
@@ -2144,7 +2351,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>44012</v>
       </c>
@@ -2156,102 +2363,173 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" ht="28.5" customHeight="true">
-      <c r="A44" t="s" s="19">
+    <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="30">
         <v>125</v>
       </c>
-      <c r="B44" t="s" s="20">
+      <c r="B47" s="31">
         <v>126</v>
       </c>
-      <c r="C44" t="s" s="21">
+      <c r="C47" s="32">
         <v>120</v>
       </c>
-      <c r="D44" t="s" s="22">
+      <c r="D47" s="33">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="34">
+        <v>125</v>
+      </c>
+      <c r="B48" s="35">
+        <v>126</v>
+      </c>
+      <c r="C48" s="36">
+        <v>120</v>
+      </c>
+      <c r="D48" s="37">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="38">
+        <v>125</v>
+      </c>
+      <c r="B49" s="39">
+        <v>126</v>
+      </c>
+      <c r="C49" s="40">
+        <v>120</v>
+      </c>
+      <c r="D49" s="41">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="45">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="49">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="53" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" ht="28.5" customHeight="true">
-      <c r="A45" t="s" s="34">
-        <v>125</v>
-      </c>
-      <c r="B45" t="s" s="35">
-        <v>126</v>
-      </c>
-      <c r="C45" t="s" s="36">
+    <row r="53" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="D45" t="s" s="37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" ht="28.5" customHeight="true">
-      <c r="A46" t="s" s="39">
-        <v>125</v>
-      </c>
-      <c r="B46" t="s" s="40">
-        <v>126</v>
-      </c>
-      <c r="C46" t="s" s="41">
+      <c r="B53" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="57">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="D46" t="s" s="42">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" ht="28.5" customHeight="true">
-      <c r="A47" t="n" s="44">
-        <v>125</v>
-      </c>
-      <c r="B47" t="n" s="45">
-        <v>126</v>
-      </c>
-      <c r="C47" t="n" s="46">
-        <v>120</v>
-      </c>
-      <c r="D47" t="n" s="47">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" ht="28.5" customHeight="true">
-      <c r="A48" t="n" s="49">
-        <v>125</v>
-      </c>
-      <c r="B48" t="n" s="50">
-        <v>126</v>
-      </c>
-      <c r="C48" t="n" s="51">
-        <v>120</v>
-      </c>
-      <c r="D48" t="n" s="52">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" ht="28.5" customHeight="true">
-      <c r="A49" t="n" s="54">
-        <v>125</v>
-      </c>
-      <c r="B49" t="n" s="55">
-        <v>126</v>
-      </c>
-      <c r="C49" t="n" s="56">
-        <v>120</v>
-      </c>
-      <c r="D49" t="n" s="57">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" t="n" s="58">
-        <v>10962.19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="B54" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="61">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="62" t="n">
+        <f>SUM(D2:D54)</f>
+        <v>300962.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="D56" s="1"/>
     </row>
     <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2280,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8B7A49-5823-4EB3-ACA3-5B311B3AC383}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2303,7 +2581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -2315,7 +2593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -2327,7 +2605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -2339,7 +2617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -2351,7 +2629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -2363,7 +2641,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -2375,7 +2653,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -2387,7 +2665,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>43845</v>
       </c>
@@ -2399,7 +2677,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>43845</v>
       </c>
@@ -2411,7 +2689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -2423,7 +2701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -2435,7 +2713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -2449,7 +2727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -2463,7 +2741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>44031</v>
       </c>
@@ -2477,7 +2755,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>44020</v>
       </c>
@@ -2491,7 +2769,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>43845</v>
       </c>
@@ -2505,7 +2783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -2517,7 +2795,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -2529,7 +2807,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -2543,47 +2821,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
+    <row r="21" ht="28.5" customHeight="true">
+      <c r="A21" t="s" s="63">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s" s="64">
         <v>121</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="16">
-        <v>1</v>
-      </c>
-      <c r="B23" s="16">
-        <v>2</v>
-      </c>
-      <c r="C23" s="16">
-        <v>3</v>
-      </c>
-      <c r="D23" s="17" t="n">
-        <f>SUM(D2:D20)</f>
-        <v>2378.0</v>
+      <c r="C21" t="s" s="65">
+        <v>117</v>
+      </c>
+      <c r="D21" t="n" s="67">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" t="n" s="68">
+        <f>SUM(D2:D21)</f>
+        <v>22378.0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2708,7 +2966,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>43846</v>
       </c>
@@ -2724,7 +2982,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43917</v>
       </c>
@@ -2740,7 +2998,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>43917</v>
       </c>
@@ -2752,7 +3010,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>43979</v>
       </c>
@@ -2768,7 +3026,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -2784,7 +3042,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -2796,7 +3054,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -2808,7 +3066,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>43979</v>
       </c>
@@ -2824,7 +3082,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>43979</v>
       </c>
@@ -2840,7 +3098,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -2856,7 +3114,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>43958</v>
       </c>
@@ -2872,7 +3130,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>43972</v>
       </c>
@@ -2888,7 +3146,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -2904,7 +3162,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>43941</v>
       </c>
@@ -2920,7 +3178,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>44020</v>
       </c>
@@ -2932,7 +3190,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>43972</v>
       </c>
@@ -2948,7 +3206,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>43879</v>
       </c>
@@ -2960,7 +3218,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>43845</v>
       </c>
@@ -2972,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>43917</v>
       </c>
@@ -2984,7 +3242,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>43846</v>
       </c>
@@ -2996,7 +3254,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>43846</v>
       </c>
@@ -3008,7 +3266,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>43845</v>
       </c>
@@ -3020,7 +3278,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>44020</v>
       </c>
@@ -3032,7 +3290,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>43979</v>
       </c>
@@ -3048,7 +3306,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>43941</v>
       </c>
@@ -3060,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>43846</v>
       </c>
@@ -3072,7 +3330,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>43846</v>
       </c>
@@ -3084,7 +3342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>43917</v>
       </c>
@@ -3096,7 +3354,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>43917</v>
       </c>
@@ -3108,7 +3366,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>43941</v>
       </c>
@@ -3120,7 +3378,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
         <v>43941</v>
       </c>
@@ -3132,7 +3390,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
         <v>43941</v>
       </c>
@@ -3144,7 +3402,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A34" s="9">
         <v>44034</v>
       </c>
@@ -3156,7 +3414,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -3168,7 +3426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -3180,7 +3438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>43845</v>
       </c>
@@ -3196,7 +3454,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>43845</v>
       </c>
@@ -3212,7 +3470,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>43845</v>
       </c>
@@ -3224,7 +3482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>43845</v>
       </c>
@@ -3236,7 +3494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>43845</v>
       </c>
@@ -3248,7 +3506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>43845</v>
       </c>
@@ -3260,7 +3518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>43929</v>
       </c>
@@ -3276,7 +3534,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>43845</v>
       </c>
@@ -3292,7 +3550,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A45" s="9">
         <v>43979</v>
       </c>
@@ -3308,7 +3566,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A46" s="9">
         <v>44012</v>
       </c>
@@ -3324,7 +3582,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A47" s="9">
         <v>44020</v>
       </c>
@@ -3338,7 +3596,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A48" s="9">
         <v>44020</v>
       </c>
@@ -3350,7 +3608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A49" s="9">
         <v>44012</v>
       </c>
@@ -3366,27 +3624,31 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17" t="n">
-        <f>SUM(D2:D49)</f>
-        <v>19953.989999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+    <row r="50" ht="28.5" customHeight="true">
+      <c r="A50" t="s" s="69">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s" s="70">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s" s="71">
+        <v>117</v>
+      </c>
+      <c r="D50" t="n" s="73">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" t="n" s="74">
+        <f>SUM(D2:D50)</f>
+        <v>39953.99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C52"/>
     </row>
     <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
@@ -3870,7 +4132,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -3882,7 +4144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -3894,7 +4156,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -3906,7 +4168,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -3920,7 +4182,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -3932,7 +4194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -3944,49 +4206,58 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
       <c r="A8" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
+      <c r="A9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+    <row r="10" ht="28.5" customHeight="true">
+      <c r="A10" t="s" s="75">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s" s="76">
         <v>121</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C10" t="s" s="77">
         <v>117</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17" t="n">
-        <f>SUM(D2:D7)</f>
-        <v>525.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" t="n" s="79">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" t="n" s="80">
+        <f>SUM(D2:D10)</f>
+        <v>20525.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -417,6 +417,15 @@
   </si>
   <si>
     <t>$200000</t>
+  </si>
+  <si>
+    <t>31  julio</t>
+  </si>
+  <si>
+    <t>Marillito</t>
+  </si>
+  <si>
+    <t>9500</t>
   </si>
 </sst>
 </file>
@@ -426,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +736,42 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -964,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1198,6 +1243,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,7 +1904,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -1853,7 +1916,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -1865,7 +1928,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>43871</v>
       </c>
@@ -1877,7 +1940,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -1891,7 +1954,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -1903,7 +1966,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -1915,7 +1978,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>43987</v>
       </c>
@@ -1927,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>43845</v>
       </c>
@@ -1939,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>43845</v>
       </c>
@@ -1951,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>43845</v>
       </c>
@@ -1963,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -1975,7 +2038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -1989,7 +2052,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -2001,7 +2064,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>43917</v>
       </c>
@@ -2013,7 +2076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>43845</v>
       </c>
@@ -2025,7 +2088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>43845</v>
       </c>
@@ -2037,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -2049,7 +2112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -2061,7 +2124,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -2073,7 +2136,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>43845</v>
       </c>
@@ -2085,7 +2148,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>43845</v>
       </c>
@@ -2097,7 +2160,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>43880</v>
       </c>
@@ -2109,7 +2172,7 @@
         <v>496.55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
         <v>43917</v>
       </c>
@@ -2121,7 +2184,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>43850</v>
       </c>
@@ -2133,7 +2196,7 @@
         <v>121.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>43845</v>
       </c>
@@ -2145,7 +2208,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>43845</v>
       </c>
@@ -2157,7 +2220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>43845</v>
       </c>
@@ -2169,7 +2232,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>43845</v>
       </c>
@@ -2183,7 +2246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>43845</v>
       </c>
@@ -2195,7 +2258,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>43850</v>
       </c>
@@ -2207,7 +2270,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>43845</v>
       </c>
@@ -2219,7 +2282,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>43845</v>
       </c>
@@ -2231,7 +2294,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>43845</v>
       </c>
@@ -2243,7 +2306,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -2256,7 +2319,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -2269,7 +2332,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
         <v>43979</v>
       </c>
@@ -2282,7 +2345,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>43871</v>
       </c>
@@ -2295,7 +2358,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>43871</v>
       </c>
@@ -2308,7 +2371,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>43871</v>
       </c>
@@ -2321,7 +2384,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
         <v>43845</v>
       </c>
@@ -2336,7 +2399,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A42" s="9">
         <v>44012</v>
       </c>
@@ -2351,7 +2414,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A43" s="9">
         <v>44012</v>
       </c>
@@ -2363,7 +2426,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A44" s="18" t="s">
         <v>120</v>
       </c>
@@ -2377,7 +2440,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A45" s="22" t="s">
         <v>120</v>
       </c>
@@ -2391,7 +2454,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A46" s="26" t="s">
         <v>120</v>
       </c>
@@ -2405,7 +2468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A47" s="30">
         <v>125</v>
       </c>
@@ -2419,7 +2482,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A48" s="34">
         <v>125</v>
       </c>
@@ -2433,7 +2496,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A49" s="38">
         <v>125</v>
       </c>
@@ -2447,7 +2510,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A50" s="42" t="s">
         <v>120</v>
       </c>
@@ -2461,7 +2524,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A51" s="46" t="s">
         <v>120</v>
       </c>
@@ -2475,7 +2538,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A52" s="50" t="s">
         <v>120</v>
       </c>
@@ -2489,7 +2552,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A53" s="54" t="s">
         <v>120</v>
       </c>
@@ -2503,7 +2566,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A54" s="58" t="s">
         <v>120</v>
       </c>
@@ -2517,19 +2580,33 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="62" t="n">
-        <f>SUM(D2:D54)</f>
-        <v>300962.19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="D56" s="1"/>
+    <row r="55" ht="28.5" customHeight="true">
+      <c r="A55" t="s" s="81">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s" s="82">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s" s="83">
+        <v>117</v>
+      </c>
+      <c r="D55" t="n" s="85">
+        <v>9500.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" t="n" s="86">
+        <f>SUM(D2:D55)</f>
+        <v>310462.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="D57" s="1"/>
     </row>
     <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -426,6 +426,15 @@
   </si>
   <si>
     <t>9500</t>
+  </si>
+  <si>
+    <t>martillor</t>
+  </si>
+  <si>
+    <t>rojo</t>
+  </si>
+  <si>
+    <t>190</t>
   </si>
 </sst>
 </file>
@@ -435,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="79" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +745,42 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1009,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1261,6 +1306,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1877,7 +1940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
@@ -2598,9 +2661,9 @@
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
-      <c r="D56" t="n" s="86">
+      <c r="D56" t="n" s="92">
         <f>SUM(D2:D55)</f>
-        <v>310462.19</v>
+        <v>310652.19</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2608,9 +2671,10 @@
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
     </row>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2621,7 +2685,6 @@
     <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition ref="B41"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="138">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>190</t>
+  </si>
+  <si>
+    <t>01  agosto</t>
+  </si>
+  <si>
+    <t>Martillo</t>
+  </si>
+  <si>
+    <t>Rojo</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="79" x14ac:knownFonts="1">
+  <fonts count="85" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +757,42 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1054,7 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1324,6 +1372,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2657,19 +2723,33 @@
         <v>9500.0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A56" s="15"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" t="n" s="92">
-        <f>SUM(D2:D55)</f>
-        <v>310652.19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="D57" s="1"/>
+    <row r="56" ht="28.5" customHeight="true">
+      <c r="A56" t="s" s="93">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s" s="94">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s" s="95">
+        <v>136</v>
+      </c>
+      <c r="D56" t="n" s="97">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" t="n" s="98">
+        <f>SUM(D2:D56)</f>
+        <v>310512.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCBFF9C-0CD3-4F75-B58F-155A17D4B091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4186FC6-92C6-448D-8C14-A6657B992FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2948" yWindow="1553" windowWidth="21727" windowHeight="11497" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HERRAMIENTAS" sheetId="4" r:id="rId1"/>
@@ -18,14 +18,12 @@
     <sheet name="MOBILIARIO" sheetId="1" r:id="rId3"/>
     <sheet name="EQUIPO DE LIMPIEZA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -372,81 +370,6 @@
   </si>
   <si>
     <t>PARA ALMACEN DE PIEZAS MINI</t>
-  </si>
-  <si>
-    <t>22  julio</t>
-  </si>
-  <si>
-    <t>Fabuloso</t>
-  </si>
-  <si>
-    <t>Aromatizante para trapear</t>
-  </si>
-  <si>
-    <t>$50</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>24  julio</t>
-  </si>
-  <si>
-    <t>$75</t>
-  </si>
-  <si>
-    <t>30  julio</t>
-  </si>
-  <si>
-    <t>Equipo y Mobiliario</t>
-  </si>
-  <si>
-    <t>$12</t>
-  </si>
-  <si>
-    <t>$ 1000</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>taladro</t>
-  </si>
-  <si>
-    <t>amarillo</t>
-  </si>
-  <si>
-    <t>$200000</t>
-  </si>
-  <si>
-    <t>31  julio</t>
-  </si>
-  <si>
-    <t>Marillito</t>
-  </si>
-  <si>
-    <t>9500</t>
-  </si>
-  <si>
-    <t>martillor</t>
-  </si>
-  <si>
-    <t>rojo</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>01  agosto</t>
-  </si>
-  <si>
-    <t>Martillo</t>
-  </si>
-  <si>
-    <t>Rojo</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
 </sst>
 </file>
@@ -456,7 +379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="85" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,494 +411,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,28 +442,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF22B473"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1049,60 +466,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1148,249 +517,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2006,22 +1132,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2033,7 +1159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -2045,7 +1171,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -2057,7 +1183,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43871</v>
       </c>
@@ -2069,7 +1195,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -2083,7 +1209,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -2095,7 +1221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -2107,7 +1233,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43987</v>
       </c>
@@ -2119,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43845</v>
       </c>
@@ -2131,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43845</v>
       </c>
@@ -2143,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43845</v>
       </c>
@@ -2155,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -2167,7 +1293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -2181,7 +1307,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -2193,7 +1319,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>43917</v>
       </c>
@@ -2205,7 +1331,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43845</v>
       </c>
@@ -2217,7 +1343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43845</v>
       </c>
@@ -2229,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -2241,7 +1367,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -2253,7 +1379,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -2265,7 +1391,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43845</v>
       </c>
@@ -2277,7 +1403,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43845</v>
       </c>
@@ -2289,7 +1415,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>43880</v>
       </c>
@@ -2301,7 +1427,7 @@
         <v>496.55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>43917</v>
       </c>
@@ -2313,7 +1439,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43850</v>
       </c>
@@ -2325,7 +1451,7 @@
         <v>121.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43845</v>
       </c>
@@ -2337,7 +1463,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43845</v>
       </c>
@@ -2349,7 +1475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43845</v>
       </c>
@@ -2361,7 +1487,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43845</v>
       </c>
@@ -2375,7 +1501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43845</v>
       </c>
@@ -2387,7 +1513,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>43850</v>
       </c>
@@ -2399,7 +1525,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43845</v>
       </c>
@@ -2411,7 +1537,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43845</v>
       </c>
@@ -2423,7 +1549,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43845</v>
       </c>
@@ -2435,7 +1561,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -2448,7 +1574,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -2461,7 +1587,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>43979</v>
       </c>
@@ -2474,7 +1600,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>43871</v>
       </c>
@@ -2487,7 +1613,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>43871</v>
       </c>
@@ -2500,7 +1626,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>43871</v>
       </c>
@@ -2513,7 +1639,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43845</v>
       </c>
@@ -2528,7 +1654,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>44012</v>
       </c>
@@ -2543,7 +1669,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>44012</v>
       </c>
@@ -2555,218 +1681,347 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A44" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A45" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A46" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A47" s="30">
-        <v>125</v>
-      </c>
-      <c r="B47" s="31">
-        <v>126</v>
-      </c>
-      <c r="C47" s="32">
-        <v>120</v>
-      </c>
-      <c r="D47" s="33">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A48" s="34">
-        <v>125</v>
-      </c>
-      <c r="B48" s="35">
-        <v>126</v>
-      </c>
-      <c r="C48" s="36">
-        <v>120</v>
-      </c>
-      <c r="D48" s="37">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A49" s="38">
-        <v>125</v>
-      </c>
-      <c r="B49" s="39">
-        <v>126</v>
-      </c>
-      <c r="C49" s="40">
-        <v>120</v>
-      </c>
-      <c r="D49" s="41">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A50" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="45">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A51" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="49">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A52" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A53" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="57">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A54" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="61">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="55" ht="28.5" customHeight="true">
-      <c r="A55" t="s" s="81">
-        <v>128</v>
-      </c>
-      <c r="B55" t="s" s="82">
-        <v>129</v>
-      </c>
-      <c r="C55" t="s" s="83">
-        <v>117</v>
-      </c>
-      <c r="D55" t="n" s="85">
-        <v>9500.0</v>
-      </c>
-    </row>
-    <row r="56" ht="28.5" customHeight="true">
-      <c r="A56" t="s" s="93">
-        <v>134</v>
-      </c>
-      <c r="B56" t="s" s="94">
-        <v>135</v>
-      </c>
-      <c r="C56" t="s" s="95">
-        <v>136</v>
-      </c>
-      <c r="D56" t="n" s="97">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" t="n" s="98">
-        <f>SUM(D2:D56)</f>
-        <v>310512.19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17">
+        <f>SUM(D2:D43)</f>
+        <v>10563.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
     <sortCondition ref="B41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2776,20 +2031,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8B7A49-5823-4EB3-ACA3-5B311B3AC383}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2801,7 +2056,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -2813,7 +2068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -2825,7 +2080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -2837,7 +2092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -2849,7 +2104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -2861,7 +2116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -2873,7 +2128,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -2885,7 +2140,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43845</v>
       </c>
@@ -2897,7 +2152,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43845</v>
       </c>
@@ -2909,7 +2164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -2921,7 +2176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -2933,7 +2188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -2947,7 +2202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -2961,7 +2216,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44031</v>
       </c>
@@ -2975,7 +2230,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44020</v>
       </c>
@@ -2989,7 +2244,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43845</v>
       </c>
@@ -3003,7 +2258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -3015,7 +2270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -3027,7 +2282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -3041,112 +2296,101 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="28.5" customHeight="true">
-      <c r="A21" t="s" s="63">
-        <v>120</v>
-      </c>
-      <c r="B21" t="s" s="64">
-        <v>121</v>
-      </c>
-      <c r="C21" t="s" s="65">
-        <v>117</v>
-      </c>
-      <c r="D21" t="n" s="67">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" t="n" s="68">
-        <f>SUM(D2:D21)</f>
-        <v>22378.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17">
+        <f>SUM(D2:D20)</f>
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3155,22 +2399,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3186,7 +2430,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43846</v>
       </c>
@@ -3202,7 +2446,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43917</v>
       </c>
@@ -3218,7 +2462,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43917</v>
       </c>
@@ -3230,7 +2474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>43979</v>
       </c>
@@ -3246,7 +2490,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -3262,7 +2506,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -3274,7 +2518,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -3286,7 +2530,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43979</v>
       </c>
@@ -3302,7 +2546,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>43979</v>
       </c>
@@ -3318,7 +2562,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -3334,7 +2578,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>43958</v>
       </c>
@@ -3350,7 +2594,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>43972</v>
       </c>
@@ -3366,7 +2610,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -3382,7 +2626,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>43941</v>
       </c>
@@ -3398,7 +2642,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44020</v>
       </c>
@@ -3410,7 +2654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>43972</v>
       </c>
@@ -3426,7 +2670,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43879</v>
       </c>
@@ -3438,7 +2682,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43845</v>
       </c>
@@ -3450,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43917</v>
       </c>
@@ -3462,7 +2706,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43846</v>
       </c>
@@ -3474,7 +2718,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43846</v>
       </c>
@@ -3486,7 +2730,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43845</v>
       </c>
@@ -3498,7 +2742,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44020</v>
       </c>
@@ -3510,7 +2754,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43979</v>
       </c>
@@ -3526,7 +2770,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43941</v>
       </c>
@@ -3538,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43846</v>
       </c>
@@ -3550,7 +2794,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43846</v>
       </c>
@@ -3562,7 +2806,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43917</v>
       </c>
@@ -3574,7 +2818,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43917</v>
       </c>
@@ -3586,7 +2830,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>43941</v>
       </c>
@@ -3598,7 +2842,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>43941</v>
       </c>
@@ -3610,7 +2854,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>43941</v>
       </c>
@@ -3622,7 +2866,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>44034</v>
       </c>
@@ -3634,7 +2878,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -3646,7 +2890,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -3658,7 +2902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43845</v>
       </c>
@@ -3674,7 +2918,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43845</v>
       </c>
@@ -3690,7 +2934,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43845</v>
       </c>
@@ -3702,7 +2946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43845</v>
       </c>
@@ -3714,7 +2958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43845</v>
       </c>
@@ -3726,7 +2970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43845</v>
       </c>
@@ -3738,7 +2982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43929</v>
       </c>
@@ -3754,7 +2998,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43845</v>
       </c>
@@ -3770,7 +3014,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>43979</v>
       </c>
@@ -3786,7 +3030,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>44012</v>
       </c>
@@ -3802,7 +3046,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>44020</v>
       </c>
@@ -3816,7 +3060,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>44020</v>
       </c>
@@ -3828,7 +3072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>44012</v>
       </c>
@@ -3844,33 +3088,40 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" ht="28.5" customHeight="true">
-      <c r="A50" t="s" s="69">
-        <v>120</v>
-      </c>
-      <c r="B50" t="s" s="70">
-        <v>121</v>
-      </c>
-      <c r="C50" t="s" s="71">
-        <v>117</v>
-      </c>
-      <c r="D50" t="n" s="73">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" t="n" s="74">
-        <f>SUM(D2:D50)</f>
-        <v>39953.99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C52"/>
-    </row>
-    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17">
+        <f>SUM(D2:D49)</f>
+        <v>19953.989999999998</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3880,7 +3131,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3890,7 +3141,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3900,7 +3151,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3910,7 +3161,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3920,7 +3171,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3930,393 +3181,418 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="D132" s="1"/>
     </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4332,15 +3608,15 @@
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -4352,7 +3628,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -4364,7 +3640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -4376,7 +3652,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -4388,7 +3664,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -4402,7 +3678,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -4414,7 +3690,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -4426,458 +3702,431 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45" customHeight="true">
-      <c r="A9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" customHeight="true">
-      <c r="A10" t="s" s="75">
-        <v>120</v>
-      </c>
-      <c r="B10" t="s" s="76">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s" s="77">
-        <v>117</v>
-      </c>
-      <c r="D10" t="n" s="79">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" t="n" s="80">
-        <f>SUM(D2:D10)</f>
-        <v>20525.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17">
+        <f>SUM(D2:D7)</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -370,6 +370,24 @@
   </si>
   <si>
     <t>PARA ALMACEN DE PIEZAS MINI</t>
+  </si>
+  <si>
+    <t>04  agosto</t>
+  </si>
+  <si>
+    <t>MARTILLO</t>
+  </si>
+  <si>
+    <t>ROJO</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -379,7 +397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,8 +429,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +532,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -466,12 +576,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -517,6 +645,42 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1141,10 +1305,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
@@ -1159,7 +1323,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -1171,7 +1335,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -1183,7 +1347,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43871</v>
       </c>
@@ -1195,7 +1359,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -1209,7 +1373,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -1221,7 +1385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -1233,7 +1397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43987</v>
       </c>
@@ -1245,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43845</v>
       </c>
@@ -1257,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43845</v>
       </c>
@@ -1269,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43845</v>
       </c>
@@ -1281,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -1293,7 +1457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43845</v>
       </c>
@@ -1307,7 +1471,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -1319,7 +1483,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>43917</v>
       </c>
@@ -1331,7 +1495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43845</v>
       </c>
@@ -1343,7 +1507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43845</v>
       </c>
@@ -1355,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -1367,7 +1531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43845</v>
       </c>
@@ -1379,7 +1543,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43845</v>
       </c>
@@ -1391,7 +1555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43845</v>
       </c>
@@ -1403,7 +1567,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43845</v>
       </c>
@@ -1415,7 +1579,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>43880</v>
       </c>
@@ -1427,7 +1591,7 @@
         <v>496.55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>43917</v>
       </c>
@@ -1439,7 +1603,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43850</v>
       </c>
@@ -1451,7 +1615,7 @@
         <v>121.74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43845</v>
       </c>
@@ -1463,7 +1627,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43845</v>
       </c>
@@ -1475,7 +1639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43845</v>
       </c>
@@ -1487,7 +1651,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43845</v>
       </c>
@@ -1501,7 +1665,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43845</v>
       </c>
@@ -1513,7 +1677,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>43850</v>
       </c>
@@ -1525,7 +1689,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43845</v>
       </c>
@@ -1537,7 +1701,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43845</v>
       </c>
@@ -1549,7 +1713,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43845</v>
       </c>
@@ -1561,7 +1725,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -1574,7 +1738,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -1587,7 +1751,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>43979</v>
       </c>
@@ -1600,7 +1764,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>43871</v>
       </c>
@@ -1613,7 +1777,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>43871</v>
       </c>
@@ -1626,7 +1790,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>43871</v>
       </c>
@@ -1639,7 +1803,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>43845</v>
       </c>
@@ -1654,7 +1818,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>44012</v>
       </c>
@@ -1669,7 +1833,7 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>44012</v>
       </c>
@@ -1681,24 +1845,42 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17">
-        <f>SUM(D2:D43)</f>
-        <v>10563.19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
+    <row r="44" ht="30.0" customHeight="true">
+      <c r="A44" t="s" s="18">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s" s="19">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="D44" t="n" s="22">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45" ht="30.0" customHeight="true">
+      <c r="A45" t="s" s="24">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s" s="25">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="D45" t="n" s="28">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" t="n" s="29">
+        <f>SUM(D2:D45)</f>
+        <v>10664.19</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -2039,9 +2221,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
@@ -2300,9 +2482,9 @@
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="17">
+      <c r="D21" s="17" t="n">
         <f>SUM(D2:D20)</f>
-        <v>2378</v>
+        <v>2378.0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2408,10 +2590,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
@@ -3092,7 +3274,7 @@
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
-      <c r="D50" s="17">
+      <c r="D50" s="17" t="n">
         <f>SUM(D2:D49)</f>
         <v>19953.989999999998</v>
       </c>
@@ -3610,10 +3792,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="40.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
@@ -3706,9 +3888,9 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="17">
+      <c r="D8" s="17" t="n">
         <f>SUM(D2:D7)</f>
-        <v>525</v>
+        <v>525.0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -388,6 +388,18 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>05  agosto</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>AMARILLO</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -397,7 +409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +440,258 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -599,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -680,6 +944,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1873,51 +2263,114 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" t="n" s="29">
-        <f>SUM(D2:D45)</f>
-        <v>10664.19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="30.0" customHeight="true">
+      <c r="A46" t="s" s="30">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s" s="31">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s" s="32">
+        <v>115</v>
+      </c>
+      <c r="D46" t="n" s="34">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="47" ht="30.0" customHeight="true">
+      <c r="A47" t="s" s="36">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s" s="37">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s" s="38">
+        <v>115</v>
+      </c>
+      <c r="D47" t="n" s="40">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="48" ht="30.0" customHeight="true">
+      <c r="A48" t="s" s="42">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s" s="43">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s" s="44">
+        <v>115</v>
+      </c>
+      <c r="D48" t="n" s="46">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="49" ht="30.0" customHeight="true">
+      <c r="A49" t="s" s="48">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s" s="49">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s" s="50">
+        <v>115</v>
+      </c>
+      <c r="D49" t="n" s="52">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="50" ht="30.0" customHeight="true">
+      <c r="A50" t="s" s="54">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s" s="55">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s" s="56">
+        <v>115</v>
+      </c>
+      <c r="D50" t="n" s="58">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="51" ht="30.0" customHeight="true">
+      <c r="A51" t="s" s="60">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s" s="61">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s" s="62">
+        <v>121</v>
+      </c>
+      <c r="D51" t="n" s="64">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="52" ht="30.0" customHeight="true">
+      <c r="A52" t="s" s="66">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s" s="67">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s" s="68">
+        <v>121</v>
+      </c>
+      <c r="D52" t="n" s="70">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" t="n" s="71">
+        <f>SUM(D2:D52)</f>
+        <v>11230.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -400,16 +400,23 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>07  agosto</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,8 +772,44 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,6 +859,16 @@
         <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -863,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1070,6 +1123,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="63" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2361,21 +2432,30 @@
         <v>123.0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" t="n" s="71">
-        <f>SUM(D2:D52)</f>
-        <v>11230.19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="30.0" customHeight="true">
+      <c r="A53" t="s" s="72">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s" s="73">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s" s="74">
+        <v>121</v>
+      </c>
+      <c r="D53" t="n" s="76">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" t="n" s="77">
+        <f>SUM(D2:D53)</f>
+        <v>13230.19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="129">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>07  agosto 20</t>
+  </si>
+  <si>
+    <t>desarmador</t>
+  </si>
+  <si>
+    <t>de paleta</t>
+  </si>
+  <si>
+    <t>100.0</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +459,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -916,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1141,6 +1183,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="63" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="68" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2446,21 +2503,30 @@
         <v>2000.0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" t="n" s="77">
+    <row r="54" ht="30.0" customHeight="true">
+      <c r="A54" t="s" s="78">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s" s="79">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s" s="80">
+        <v>127</v>
+      </c>
+      <c r="D54" t="n" s="82">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" t="n" s="77">
         <f>SUM(D2:D53)</f>
         <v>13230.19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="132">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>100.0</t>
+  </si>
+  <si>
+    <t>Sillas</t>
+  </si>
+  <si>
+    <t>Sillas Verdes</t>
+  </si>
+  <si>
+    <t>600.0</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +468,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -958,7 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1198,6 +1237,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="68" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="73" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3211,7 +3265,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43846</v>
       </c>
@@ -3227,7 +3281,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43917</v>
       </c>
@@ -3243,7 +3297,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43917</v>
       </c>
@@ -3255,7 +3309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>43979</v>
       </c>
@@ -3271,7 +3325,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -3287,7 +3341,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -3299,7 +3353,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -3311,7 +3365,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43979</v>
       </c>
@@ -3327,7 +3381,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>43979</v>
       </c>
@@ -3343,7 +3397,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -3359,7 +3413,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>43958</v>
       </c>
@@ -3375,7 +3429,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>43972</v>
       </c>
@@ -3391,7 +3445,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43845</v>
       </c>
@@ -3407,7 +3461,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>43941</v>
       </c>
@@ -3423,7 +3477,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44020</v>
       </c>
@@ -3435,7 +3489,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>43972</v>
       </c>
@@ -3451,7 +3505,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43879</v>
       </c>
@@ -3463,7 +3517,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43845</v>
       </c>
@@ -3475,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43917</v>
       </c>
@@ -3487,7 +3541,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43846</v>
       </c>
@@ -3499,7 +3553,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43846</v>
       </c>
@@ -3511,7 +3565,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43845</v>
       </c>
@@ -3523,7 +3577,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44020</v>
       </c>
@@ -3535,7 +3589,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>43979</v>
       </c>
@@ -3551,7 +3605,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43941</v>
       </c>
@@ -3563,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43846</v>
       </c>
@@ -3575,7 +3629,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43846</v>
       </c>
@@ -3587,7 +3641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43917</v>
       </c>
@@ -3599,7 +3653,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43917</v>
       </c>
@@ -3611,7 +3665,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>43941</v>
       </c>
@@ -3623,7 +3677,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>43941</v>
       </c>
@@ -3635,7 +3689,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>43941</v>
       </c>
@@ -3647,7 +3701,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>44034</v>
       </c>
@@ -3659,7 +3713,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
@@ -3671,7 +3725,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43845</v>
       </c>
@@ -3683,7 +3737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43845</v>
       </c>
@@ -3699,7 +3753,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43845</v>
       </c>
@@ -3715,7 +3769,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43845</v>
       </c>
@@ -3727,7 +3781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43845</v>
       </c>
@@ -3739,7 +3793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43845</v>
       </c>
@@ -3751,7 +3805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43845</v>
       </c>
@@ -3763,7 +3817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43929</v>
       </c>
@@ -3779,7 +3833,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43845</v>
       </c>
@@ -3795,7 +3849,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>43979</v>
       </c>
@@ -3811,7 +3865,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>44012</v>
       </c>
@@ -3827,7 +3881,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>44020</v>
       </c>
@@ -3841,7 +3895,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>44020</v>
       </c>
@@ -3853,7 +3907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>44012</v>
       </c>
@@ -3869,30 +3923,34 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17" t="n">
+    <row r="50" ht="30.0" customHeight="true">
+      <c r="A50" t="s" s="83">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s" s="84">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s" s="85">
+        <v>130</v>
+      </c>
+      <c r="D50" t="n" s="87">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17" t="n">
         <f>SUM(D2:D49)</f>
         <v>19953.989999999998</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="141">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -427,6 +427,33 @@
   </si>
   <si>
     <t>600.0</t>
+  </si>
+  <si>
+    <t>10  agosto</t>
+  </si>
+  <si>
+    <t>Desarmador</t>
+  </si>
+  <si>
+    <t>De palea</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Frenos Shidos</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>Manubrio</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
@@ -437,7 +464,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +495,114 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -997,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1252,6 +1387,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="73" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="78" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="79" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="84" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="85" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="90" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="91" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2571,31 +2760,58 @@
         <v>100.0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" t="n" s="77">
-        <f>SUM(D2:D53)</f>
-        <v>13230.19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" ht="30.0" customHeight="true">
+      <c r="A55" t="s" s="88">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s" s="89">
+        <v>133</v>
+      </c>
+      <c r="C55" t="s" s="90">
+        <v>134</v>
+      </c>
+      <c r="D55" t="n" s="92">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="56" ht="30.0" customHeight="true">
+      <c r="A56" t="s" s="94">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s" s="95">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s" s="96">
+        <v>137</v>
+      </c>
+      <c r="D56" t="n" s="98">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="57" ht="30.0" customHeight="true">
+      <c r="A57" t="s" s="100">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s" s="101">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s" s="102">
+        <v>137</v>
+      </c>
+      <c r="D57" t="n" s="104">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" t="n" s="105">
+        <f>SUM(D2:D57)</f>
+        <v>14980.19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="148">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -454,6 +454,27 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>marittlo</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>taladro</t>
+  </si>
+  <si>
+    <t>amarillo</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>mesa</t>
+  </si>
+  <si>
+    <t>blanca</t>
   </si>
 </sst>
 </file>
@@ -464,7 +485,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="110" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +516,114 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1132,7 +1261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1441,6 +1570,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="91" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="96" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="97" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="102" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="103" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="108" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="109" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2057,7 +2240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
@@ -2802,21 +2985,30 @@
         <v>500.0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" t="n" s="105">
-        <f>SUM(D2:D57)</f>
-        <v>14980.19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="30.0" customHeight="true">
+      <c r="A58" t="s" s="106">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s" s="107">
+        <v>141</v>
+      </c>
+      <c r="C58" t="s" s="108">
+        <v>142</v>
+      </c>
+      <c r="D58" t="n" s="110">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" t="n" s="117">
+        <f>SUM(D2:D58)</f>
+        <v>15080.19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
@@ -3001,7 +3193,7 @@
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
@@ -3056,7 +3248,7 @@
       <c r="B107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="D108" s="1"/>
@@ -3065,11 +3257,6 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="D110" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
@@ -3450,7 +3637,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4157,9 +4344,9 @@
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="17" t="n">
-        <f>SUM(D2:D49)</f>
-        <v>19953.989999999998</v>
+      <c r="D51" t="n" s="123">
+        <f>SUM(D2:D50)</f>
+        <v>21553.989999999998</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -4241,10 +4428,6 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
@@ -4270,7 +4453,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4349,10 +4532,9 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
@@ -4589,7 +4771,7 @@
       <c r="B124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="D125" s="1"/>
@@ -4638,11 +4820,6 @@
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="D135" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -3269,7 +3269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8B7A49-5823-4EB3-ACA3-5B311B3AC383}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -3294,16 +3294,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="11">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3311,11 +3311,11 @@
         <v>43845</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="11">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3323,11 +3323,11 @@
         <v>43845</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3335,11 +3335,11 @@
         <v>43845</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3347,11 +3347,11 @@
         <v>43845</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="11">
-        <v>59</v>
+      <c r="D6" s="8">
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3359,11 +3359,11 @@
         <v>43845</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3371,11 +3371,11 @@
         <v>43845</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
-        <v>200</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,11 +3383,11 @@
         <v>43845</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
-        <v>1160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3395,11 +3395,11 @@
         <v>43845</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="8">
-        <v>100</v>
+      <c r="D10" s="11">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3407,11 +3407,11 @@
         <v>43845</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="11">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3419,11 +3419,13 @@
         <v>43845</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D12" s="11">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3434,7 +3436,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" s="11">
         <v>25</v>
@@ -3442,27 +3444,27 @@
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43845</v>
+        <v>44031</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D14" s="11">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>44031</v>
+        <v>44020</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D15" s="11">
         <v>99</v>
@@ -3470,16 +3472,16 @@
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>44020</v>
+        <v>43845</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="11">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="D16" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3487,13 +3489,11 @@
         <v>43845</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C17" s="7"/>
       <c r="D17" s="8">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3501,11 +3501,11 @@
         <v>43845</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3513,36 +3513,25 @@
         <v>43845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="D19" s="8">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17" t="n">
-        <f>SUM(D2:D20)</f>
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="n">
+        <f>SUM(D2:D19)</f>
         <v>2378.0</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3553,7 +3542,7 @@
     <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3628,7 +3617,6 @@
     <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -475,6 +475,15 @@
   </si>
   <si>
     <t>blanca</t>
+  </si>
+  <si>
+    <t>11  agosto</t>
+  </si>
+  <si>
+    <t>Equisde</t>
+  </si>
+  <si>
+    <t>600</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="110" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +525,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1261,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1624,6 +1669,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="109" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="114" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="115" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2240,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
@@ -2272,35 +2335,37 @@
         <v>43845</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
-        <v>530</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8">
-        <v>930</v>
+      <c r="A3" s="9">
+        <v>43871</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>43871</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11">
-        <v>149</v>
+      <c r="A4" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2480</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2308,13 +2373,11 @@
         <v>43845</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="8">
-        <v>2480</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2322,31 +2385,31 @@
         <v>43845</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
-        <v>200</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8">
-        <v>105</v>
+      <c r="A7" s="12">
+        <v>43987</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>43987</v>
+        <v>43845</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14">
@@ -2358,7 +2421,7 @@
         <v>43845</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14">
@@ -2378,15 +2441,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>43845</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14">
-        <v>0</v>
+      <c r="A11" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2394,11 +2457,13 @@
         <v>43845</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D12" s="8">
-        <v>48</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2406,61 +2471,59 @@
         <v>43845</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="8">
-        <v>1100</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8">
-        <v>255</v>
+      <c r="A14" s="9">
+        <v>43917</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>43917</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11">
-        <v>38</v>
+      <c r="A15" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8">
-        <v>35</v>
+      <c r="A16" s="12">
+        <v>43845</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>43845</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14">
-        <v>0</v>
+      <c r="A17" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2468,11 +2531,11 @@
         <v>43845</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2480,11 +2543,11 @@
         <v>43845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2492,11 +2555,11 @@
         <v>43845</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8">
-        <v>76</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2504,59 +2567,59 @@
         <v>43845</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8">
-        <v>360</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8">
-        <v>550</v>
+      <c r="A22" s="9">
+        <v>43880</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11">
+        <v>496.55</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>43880</v>
+        <v>43917</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11">
-        <v>496.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>43917</v>
+        <v>43850</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11">
-        <v>180</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>43850</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11">
-        <v>121.74</v>
+      <c r="A25" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8">
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2564,11 +2627,11 @@
         <v>43845</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8">
-        <v>159</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2576,11 +2639,11 @@
         <v>43845</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="8">
-        <v>50</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2588,61 +2651,61 @@
         <v>43845</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D28" s="8">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43845</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="8">
-        <v>63</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8">
-        <v>167</v>
+      <c r="A30" s="9">
+        <v>43850</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11">
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>43850</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43845</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2650,11 +2713,11 @@
         <v>43845</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8">
-        <v>105</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2662,49 +2725,50 @@
         <v>43845</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8">
-        <v>595</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43845</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="8">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8">
-        <v>89</v>
+      <c r="A36" s="9">
+        <v>43979</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11">
+        <v>39.9</v>
       </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>43979</v>
+        <v>43871</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11">
-        <v>39.9</v>
+        <v>159</v>
       </c>
       <c r="G37" s="5"/>
     </row>
@@ -2713,11 +2777,11 @@
         <v>43871</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="G38" s="5"/>
     </row>
@@ -2726,289 +2790,281 @@
         <v>43871</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="11">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>43871</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11">
-        <v>225</v>
+      <c r="A40" s="12">
+        <v>43845</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0</v>
       </c>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>43845</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="14">
-        <v>0</v>
+      <c r="A41" s="9">
+        <v>44012</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="11">
+        <v>349</v>
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>44012</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>110</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="11">
-        <v>349</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>44012</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11">
         <v>79</v>
       </c>
     </row>
+    <row r="43" ht="30.0" customHeight="true">
+      <c r="A43" t="s" s="18">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s" s="19">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="D43" t="n" s="22">
+        <v>100.0</v>
+      </c>
+    </row>
     <row r="44" ht="30.0" customHeight="true">
-      <c r="A44" t="s" s="18">
+      <c r="A44" t="s" s="24">
         <v>113</v>
       </c>
-      <c r="B44" t="s" s="19">
+      <c r="B44" t="s" s="25">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="D44" t="n" s="28">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45" ht="30.0" customHeight="true">
+      <c r="A45" t="s" s="30">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s" s="31">
         <v>114</v>
       </c>
-      <c r="C44" t="s" s="20">
+      <c r="C45" t="s" s="32">
         <v>115</v>
       </c>
-      <c r="D44" t="n" s="22">
+      <c r="D45" t="n" s="34">
         <v>100.0</v>
       </c>
     </row>
-    <row r="45" ht="30.0" customHeight="true">
-      <c r="A45" t="s" s="24">
-        <v>113</v>
-      </c>
-      <c r="B45" t="s" s="25">
-        <v>117</v>
-      </c>
-      <c r="C45" t="s" s="26">
-        <v>117</v>
-      </c>
-      <c r="D45" t="n" s="28">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="46" ht="30.0" customHeight="true">
-      <c r="A46" t="s" s="30">
+      <c r="A46" t="s" s="36">
         <v>119</v>
       </c>
-      <c r="B46" t="s" s="31">
+      <c r="B46" t="s" s="37">
         <v>114</v>
       </c>
-      <c r="C46" t="s" s="32">
+      <c r="C46" t="s" s="38">
         <v>115</v>
       </c>
-      <c r="D46" t="n" s="34">
+      <c r="D46" t="n" s="40">
         <v>100.0</v>
       </c>
     </row>
     <row r="47" ht="30.0" customHeight="true">
-      <c r="A47" t="s" s="36">
+      <c r="A47" t="s" s="42">
         <v>119</v>
       </c>
-      <c r="B47" t="s" s="37">
+      <c r="B47" t="s" s="43">
         <v>114</v>
       </c>
-      <c r="C47" t="s" s="38">
+      <c r="C47" t="s" s="44">
         <v>115</v>
       </c>
-      <c r="D47" t="n" s="40">
+      <c r="D47" t="n" s="46">
         <v>100.0</v>
       </c>
     </row>
     <row r="48" ht="30.0" customHeight="true">
-      <c r="A48" t="s" s="42">
+      <c r="A48" t="s" s="48">
         <v>119</v>
       </c>
-      <c r="B48" t="s" s="43">
+      <c r="B48" t="s" s="49">
         <v>114</v>
       </c>
-      <c r="C48" t="s" s="44">
+      <c r="C48" t="s" s="50">
         <v>115</v>
       </c>
-      <c r="D48" t="n" s="46">
+      <c r="D48" t="n" s="52">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="49" ht="30.0" customHeight="true">
+      <c r="A49" t="s" s="54">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s" s="55">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s" s="56">
+        <v>115</v>
+      </c>
+      <c r="D49" t="n" s="58">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="50" ht="30.0" customHeight="true">
+      <c r="A50" t="s" s="60">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s" s="61">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s" s="62">
+        <v>121</v>
+      </c>
+      <c r="D50" t="n" s="64">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="51" ht="30.0" customHeight="true">
+      <c r="A51" t="s" s="66">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s" s="67">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s" s="68">
+        <v>121</v>
+      </c>
+      <c r="D51" t="n" s="70">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="52" ht="30.0" customHeight="true">
+      <c r="A52" t="s" s="72">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s" s="73">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s" s="74">
+        <v>121</v>
+      </c>
+      <c r="D52" t="n" s="76">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="53" ht="30.0" customHeight="true">
+      <c r="A53" t="s" s="78">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s" s="79">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s" s="80">
+        <v>127</v>
+      </c>
+      <c r="D53" t="n" s="82">
         <v>100.0</v>
       </c>
     </row>
-    <row r="49" ht="30.0" customHeight="true">
-      <c r="A49" t="s" s="48">
-        <v>119</v>
-      </c>
-      <c r="B49" t="s" s="49">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s" s="50">
-        <v>115</v>
-      </c>
-      <c r="D49" t="n" s="52">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="50" ht="30.0" customHeight="true">
-      <c r="A50" t="s" s="54">
-        <v>119</v>
-      </c>
-      <c r="B50" t="s" s="55">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s" s="56">
-        <v>115</v>
-      </c>
-      <c r="D50" t="n" s="58">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="51" ht="30.0" customHeight="true">
-      <c r="A51" t="s" s="60">
-        <v>119</v>
-      </c>
-      <c r="B51" t="s" s="61">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s" s="62">
-        <v>121</v>
-      </c>
-      <c r="D51" t="n" s="64">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="52" ht="30.0" customHeight="true">
-      <c r="A52" t="s" s="66">
-        <v>119</v>
-      </c>
-      <c r="B52" t="s" s="67">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s" s="68">
-        <v>121</v>
-      </c>
-      <c r="D52" t="n" s="70">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="53" ht="30.0" customHeight="true">
-      <c r="A53" t="s" s="72">
-        <v>123</v>
-      </c>
-      <c r="B53" t="s" s="73">
-        <v>19</v>
-      </c>
-      <c r="C53" t="s" s="74">
-        <v>121</v>
-      </c>
-      <c r="D53" t="n" s="76">
-        <v>2000.0</v>
-      </c>
-    </row>
     <row r="54" ht="30.0" customHeight="true">
-      <c r="A54" t="s" s="78">
-        <v>125</v>
-      </c>
-      <c r="B54" t="s" s="79">
-        <v>126</v>
-      </c>
-      <c r="C54" t="s" s="80">
-        <v>127</v>
-      </c>
-      <c r="D54" t="n" s="82">
+      <c r="A54" t="s" s="88">
+        <v>132</v>
+      </c>
+      <c r="B54" t="s" s="89">
+        <v>133</v>
+      </c>
+      <c r="C54" t="s" s="90">
+        <v>134</v>
+      </c>
+      <c r="D54" t="n" s="92">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="55" ht="30.0" customHeight="true">
+      <c r="A55" t="s" s="94">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s" s="95">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s" s="96">
+        <v>137</v>
+      </c>
+      <c r="D55" t="n" s="98">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="56" ht="30.0" customHeight="true">
+      <c r="A56" t="s" s="100">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s" s="101">
+        <v>139</v>
+      </c>
+      <c r="C56" t="s" s="102">
+        <v>137</v>
+      </c>
+      <c r="D56" t="n" s="104">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="57" ht="30.0" customHeight="true">
+      <c r="A57" t="s" s="106">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s" s="107">
+        <v>141</v>
+      </c>
+      <c r="C57" t="s" s="108">
+        <v>142</v>
+      </c>
+      <c r="D57" t="n" s="110">
         <v>100.0</v>
       </c>
     </row>
-    <row r="55" ht="30.0" customHeight="true">
-      <c r="A55" t="s" s="88">
-        <v>132</v>
-      </c>
-      <c r="B55" t="s" s="89">
-        <v>133</v>
-      </c>
-      <c r="C55" t="s" s="90">
-        <v>134</v>
-      </c>
-      <c r="D55" t="n" s="92">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="56" ht="30.0" customHeight="true">
-      <c r="A56" t="s" s="94">
-        <v>132</v>
-      </c>
-      <c r="B56" t="s" s="95">
-        <v>136</v>
-      </c>
-      <c r="C56" t="s" s="96">
-        <v>137</v>
-      </c>
-      <c r="D56" t="n" s="98">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="57" ht="30.0" customHeight="true">
-      <c r="A57" t="s" s="100">
-        <v>132</v>
-      </c>
-      <c r="B57" t="s" s="101">
-        <v>139</v>
-      </c>
-      <c r="C57" t="s" s="102">
-        <v>137</v>
-      </c>
-      <c r="D57" t="n" s="104">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="58" ht="30.0" customHeight="true">
-      <c r="A58" t="s" s="106">
-        <v>132</v>
-      </c>
-      <c r="B58" t="s" s="107">
-        <v>141</v>
-      </c>
-      <c r="C58" t="s" s="108">
-        <v>142</v>
-      </c>
-      <c r="D58" t="n" s="110">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" t="n" s="117">
-        <f>SUM(D2:D58)</f>
-        <v>15080.19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" t="n" s="129">
+        <f>SUM(D2:D57)</f>
+        <v>15150.19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
@@ -3183,12 +3239,12 @@
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
@@ -3238,25 +3294,15 @@
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="D109" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
@@ -3528,7 +3574,7 @@
       <c r="C20" s="16"/>
       <c r="D20" s="17" t="n">
         <f>SUM(D2:D19)</f>
-        <v>2378.0</v>
+        <v>2319.0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4334,7 +4380,7 @@
       <c r="C51" s="16"/>
       <c r="D51" t="n" s="123">
         <f>SUM(D2:D50)</f>
-        <v>21553.989999999998</v>
+        <v>20553.989999999998</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -2303,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
@@ -3036,30 +3036,21 @@
         <v>500.0</v>
       </c>
     </row>
-    <row r="57" ht="30.0" customHeight="true">
-      <c r="A57" t="s" s="106">
-        <v>132</v>
-      </c>
-      <c r="B57" t="s" s="107">
-        <v>141</v>
-      </c>
-      <c r="C57" t="s" s="108">
-        <v>142</v>
-      </c>
-      <c r="D57" t="n" s="110">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" t="n" s="129">
-        <f>SUM(D2:D57)</f>
+    <row r="57" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" t="n" s="129">
+        <f>SUM(D2:D56)</f>
         <v>15150.19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
@@ -3234,7 +3225,7 @@
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
@@ -3289,7 +3280,7 @@
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
@@ -3298,11 +3289,6 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="D107" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
@@ -3315,7 +3301,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8B7A49-5823-4EB3-ACA3-5B311B3AC383}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -3345,11 +3331,11 @@
         <v>43845</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="11">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3357,11 +3343,11 @@
         <v>43845</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="11">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,11 +3355,11 @@
         <v>43845</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,11 +3367,11 @@
         <v>43845</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="11">
-        <v>59</v>
+      <c r="D5" s="8">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3393,11 +3379,11 @@
         <v>43845</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3405,11 +3391,11 @@
         <v>43845</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
-        <v>200</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3417,11 +3403,11 @@
         <v>43845</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
-        <v>1160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3429,11 +3415,11 @@
         <v>43845</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="8">
-        <v>100</v>
+      <c r="D9" s="11">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3441,11 +3427,11 @@
         <v>43845</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="11">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3453,11 +3439,13 @@
         <v>43845</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D11" s="11">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3468,7 +3456,7 @@
         <v>89</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="11">
         <v>25</v>
@@ -3476,27 +3464,27 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43845</v>
+        <v>44031</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D13" s="11">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>44031</v>
+        <v>44020</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D14" s="11">
         <v>99</v>
@@ -3504,16 +3492,16 @@
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>44020</v>
+        <v>43845</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="11">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="D15" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3521,13 +3509,11 @@
         <v>43845</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>93</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="8">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3535,11 +3521,11 @@
         <v>43845</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3547,36 +3533,25 @@
         <v>43845</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="D18" s="8">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17" t="n">
-        <f>SUM(D2:D19)</f>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17" t="n">
+        <f>SUM(D2:D18)</f>
         <v>2319.0</v>
       </c>
     </row>
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3562,7 @@
     <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3662,7 +3637,6 @@
     <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3671,7 +3645,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4360,34 +4334,30 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" ht="30.0" customHeight="true">
-      <c r="A50" t="s" s="83">
-        <v>125</v>
-      </c>
-      <c r="B50" t="s" s="84">
-        <v>129</v>
-      </c>
-      <c r="C50" t="s" s="85">
-        <v>130</v>
-      </c>
-      <c r="D50" t="n" s="87">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" t="n" s="123">
-        <f>SUM(D2:D50)</f>
+    <row r="50" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" t="n" s="123">
+        <f>SUM(D2:D49)</f>
         <v>20553.989999999998</v>
       </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4452,10 +4422,6 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -4481,7 +4447,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4560,10 +4526,9 @@
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
@@ -4800,7 +4765,7 @@
       <c r="B123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="D124" s="1"/>
@@ -4849,11 +4814,6 @@
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="D134" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="154">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -484,6 +484,15 @@
   </si>
   <si>
     <t>600</t>
+  </si>
+  <si>
+    <t>12  agosto</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>dsdf</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="122" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +534,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1306,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1687,6 +1732,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="115" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="120" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="121" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3036,21 +3099,30 @@
         <v>500.0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" t="n" s="129">
-        <f>SUM(D2:D56)</f>
-        <v>15150.19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="30.0" customHeight="true">
+      <c r="A57" t="s" s="130">
+        <v>151</v>
+      </c>
+      <c r="B57" t="s" s="131">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s" s="132">
+        <v>153</v>
+      </c>
+      <c r="D57" t="n" s="134">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" t="n" s="135">
+        <f>SUM(D2:D57)</f>
+        <v>15450.19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
@@ -3548,7 +3620,7 @@
       <c r="C19" s="16"/>
       <c r="D19" s="17" t="n">
         <f>SUM(D2:D18)</f>
-        <v>2319.0</v>
+        <v>2285.0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4340,7 +4412,7 @@
       <c r="C50" s="16"/>
       <c r="D50" t="n" s="123">
         <f>SUM(D2:D49)</f>
-        <v>20553.989999999998</v>
+        <v>19953.989999999998</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="154">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -484,6 +484,15 @@
   </si>
   <si>
     <t>600</t>
+  </si>
+  <si>
+    <t>12  agosto</t>
+  </si>
+  <si>
+    <t>HERRAMIENTA PRUEBA</t>
+  </si>
+  <si>
+    <t>EQUISDE</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="122" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +534,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1306,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1687,6 +1732,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="115" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="120" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="121" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3036,21 +3099,30 @@
         <v>500.0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" t="n" s="129">
-        <f>SUM(D2:D56)</f>
-        <v>15150.19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="30.0" customHeight="true">
+      <c r="A57" t="s" s="130">
+        <v>151</v>
+      </c>
+      <c r="B57" t="s" s="131">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s" s="132">
+        <v>153</v>
+      </c>
+      <c r="D57" t="n" s="134">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" t="n" s="135">
+        <f>SUM(D2:D57)</f>
+        <v>15050.19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
@@ -3548,7 +3620,7 @@
       <c r="C19" s="16"/>
       <c r="D19" s="17" t="n">
         <f>SUM(D2:D18)</f>
-        <v>2319.0</v>
+        <v>2285.0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4340,7 +4412,7 @@
       <c r="C50" s="16"/>
       <c r="D50" t="n" s="123">
         <f>SUM(D2:D49)</f>
-        <v>20553.989999999998</v>
+        <v>19953.989999999998</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -2366,7 +2366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
@@ -2394,27 +2394,29 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8">
-        <v>930</v>
+      <c r="A2" s="9">
+        <v>43871</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>43871</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11">
-        <v>149</v>
+      <c r="A3" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2480</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2422,13 +2424,11 @@
         <v>43845</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="8">
-        <v>2480</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2436,31 +2436,31 @@
         <v>43845</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8">
-        <v>200</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8">
-        <v>105</v>
+      <c r="A6" s="12">
+        <v>43987</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>43987</v>
+        <v>43845</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14">
@@ -2472,7 +2472,7 @@
         <v>43845</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14">
@@ -2492,15 +2492,15 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>43845</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14">
-        <v>0</v>
+      <c r="A10" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2508,11 +2508,13 @@
         <v>43845</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" s="8">
-        <v>48</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2520,61 +2522,59 @@
         <v>43845</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="8">
-        <v>1100</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8">
-        <v>255</v>
+      <c r="A13" s="9">
+        <v>43917</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>43917</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11">
-        <v>38</v>
+      <c r="A14" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8">
-        <v>35</v>
+      <c r="A15" s="12">
+        <v>43845</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>43845</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14">
-        <v>0</v>
+      <c r="A16" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2582,11 +2582,11 @@
         <v>43845</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2594,11 +2594,11 @@
         <v>43845</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2606,11 +2606,11 @@
         <v>43845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8">
-        <v>76</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2618,59 +2618,59 @@
         <v>43845</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8">
-        <v>360</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8">
-        <v>550</v>
+      <c r="A21" s="9">
+        <v>43880</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11">
+        <v>496.55</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>43880</v>
+        <v>43917</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11">
-        <v>496.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>43917</v>
+        <v>43850</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11">
-        <v>180</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>43850</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11">
-        <v>121.74</v>
+      <c r="A24" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2678,11 +2678,11 @@
         <v>43845</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8">
-        <v>159</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2690,11 +2690,11 @@
         <v>43845</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8">
-        <v>50</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2702,61 +2702,61 @@
         <v>43845</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D27" s="8">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43845</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="8">
-        <v>63</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8">
-        <v>167</v>
+      <c r="A29" s="9">
+        <v>43850</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11">
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>43850</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43845</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2764,11 +2764,11 @@
         <v>43845</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8">
-        <v>105</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -2776,49 +2776,50 @@
         <v>43845</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8">
-        <v>595</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43845</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8">
-        <v>89</v>
+      <c r="A35" s="9">
+        <v>43979</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11">
+        <v>39.9</v>
       </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
-        <v>43979</v>
+        <v>43871</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11">
-        <v>39.9</v>
+        <v>159</v>
       </c>
       <c r="G36" s="5"/>
     </row>
@@ -2827,11 +2828,11 @@
         <v>43871</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="G37" s="5"/>
     </row>
@@ -2840,289 +2841,281 @@
         <v>43871</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>43871</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11">
-        <v>225</v>
+      <c r="A39" s="12">
+        <v>43845</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>43845</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="14">
-        <v>0</v>
+      <c r="A40" s="9">
+        <v>44012</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="11">
+        <v>349</v>
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>44012</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>110</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C41" s="10"/>
       <c r="D41" s="11">
-        <v>349</v>
-      </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>44012</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11">
         <v>79</v>
       </c>
     </row>
+    <row r="42" ht="30.0" customHeight="true">
+      <c r="A42" t="s" s="18">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s" s="19">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="D42" t="n" s="22">
+        <v>100.0</v>
+      </c>
+    </row>
     <row r="43" ht="30.0" customHeight="true">
-      <c r="A43" t="s" s="18">
+      <c r="A43" t="s" s="24">
         <v>113</v>
       </c>
-      <c r="B43" t="s" s="19">
+      <c r="B43" t="s" s="25">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="D43" t="n" s="28">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44" ht="30.0" customHeight="true">
+      <c r="A44" t="s" s="30">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s" s="31">
         <v>114</v>
       </c>
-      <c r="C43" t="s" s="20">
+      <c r="C44" t="s" s="32">
         <v>115</v>
       </c>
-      <c r="D43" t="n" s="22">
+      <c r="D44" t="n" s="34">
         <v>100.0</v>
       </c>
     </row>
-    <row r="44" ht="30.0" customHeight="true">
-      <c r="A44" t="s" s="24">
-        <v>113</v>
-      </c>
-      <c r="B44" t="s" s="25">
-        <v>117</v>
-      </c>
-      <c r="C44" t="s" s="26">
-        <v>117</v>
-      </c>
-      <c r="D44" t="n" s="28">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="45" ht="30.0" customHeight="true">
-      <c r="A45" t="s" s="30">
+      <c r="A45" t="s" s="36">
         <v>119</v>
       </c>
-      <c r="B45" t="s" s="31">
+      <c r="B45" t="s" s="37">
         <v>114</v>
       </c>
-      <c r="C45" t="s" s="32">
+      <c r="C45" t="s" s="38">
         <v>115</v>
       </c>
-      <c r="D45" t="n" s="34">
+      <c r="D45" t="n" s="40">
         <v>100.0</v>
       </c>
     </row>
     <row r="46" ht="30.0" customHeight="true">
-      <c r="A46" t="s" s="36">
+      <c r="A46" t="s" s="42">
         <v>119</v>
       </c>
-      <c r="B46" t="s" s="37">
+      <c r="B46" t="s" s="43">
         <v>114</v>
       </c>
-      <c r="C46" t="s" s="38">
+      <c r="C46" t="s" s="44">
         <v>115</v>
       </c>
-      <c r="D46" t="n" s="40">
+      <c r="D46" t="n" s="46">
         <v>100.0</v>
       </c>
     </row>
     <row r="47" ht="30.0" customHeight="true">
-      <c r="A47" t="s" s="42">
+      <c r="A47" t="s" s="48">
         <v>119</v>
       </c>
-      <c r="B47" t="s" s="43">
+      <c r="B47" t="s" s="49">
         <v>114</v>
       </c>
-      <c r="C47" t="s" s="44">
+      <c r="C47" t="s" s="50">
         <v>115</v>
       </c>
-      <c r="D47" t="n" s="46">
+      <c r="D47" t="n" s="52">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="48" ht="30.0" customHeight="true">
+      <c r="A48" t="s" s="54">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s" s="55">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s" s="56">
+        <v>115</v>
+      </c>
+      <c r="D48" t="n" s="58">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="49" ht="30.0" customHeight="true">
+      <c r="A49" t="s" s="60">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s" s="61">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s" s="62">
+        <v>121</v>
+      </c>
+      <c r="D49" t="n" s="64">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="50" ht="30.0" customHeight="true">
+      <c r="A50" t="s" s="66">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s" s="67">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s" s="68">
+        <v>121</v>
+      </c>
+      <c r="D50" t="n" s="70">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="51" ht="30.0" customHeight="true">
+      <c r="A51" t="s" s="72">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s" s="73">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s" s="74">
+        <v>121</v>
+      </c>
+      <c r="D51" t="n" s="76">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="52" ht="30.0" customHeight="true">
+      <c r="A52" t="s" s="78">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s" s="79">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s" s="80">
+        <v>127</v>
+      </c>
+      <c r="D52" t="n" s="82">
         <v>100.0</v>
       </c>
     </row>
-    <row r="48" ht="30.0" customHeight="true">
-      <c r="A48" t="s" s="48">
-        <v>119</v>
-      </c>
-      <c r="B48" t="s" s="49">
-        <v>114</v>
-      </c>
-      <c r="C48" t="s" s="50">
-        <v>115</v>
-      </c>
-      <c r="D48" t="n" s="52">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="49" ht="30.0" customHeight="true">
-      <c r="A49" t="s" s="54">
-        <v>119</v>
-      </c>
-      <c r="B49" t="s" s="55">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s" s="56">
-        <v>115</v>
-      </c>
-      <c r="D49" t="n" s="58">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="50" ht="30.0" customHeight="true">
-      <c r="A50" t="s" s="60">
-        <v>119</v>
-      </c>
-      <c r="B50" t="s" s="61">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s" s="62">
-        <v>121</v>
-      </c>
-      <c r="D50" t="n" s="64">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="51" ht="30.0" customHeight="true">
-      <c r="A51" t="s" s="66">
-        <v>119</v>
-      </c>
-      <c r="B51" t="s" s="67">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s" s="68">
-        <v>121</v>
-      </c>
-      <c r="D51" t="n" s="70">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="52" ht="30.0" customHeight="true">
-      <c r="A52" t="s" s="72">
-        <v>123</v>
-      </c>
-      <c r="B52" t="s" s="73">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s" s="74">
-        <v>121</v>
-      </c>
-      <c r="D52" t="n" s="76">
-        <v>2000.0</v>
-      </c>
-    </row>
     <row r="53" ht="30.0" customHeight="true">
-      <c r="A53" t="s" s="78">
-        <v>125</v>
-      </c>
-      <c r="B53" t="s" s="79">
-        <v>126</v>
-      </c>
-      <c r="C53" t="s" s="80">
-        <v>127</v>
-      </c>
-      <c r="D53" t="n" s="82">
-        <v>100.0</v>
+      <c r="A53" t="s" s="88">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s" s="89">
+        <v>133</v>
+      </c>
+      <c r="C53" t="s" s="90">
+        <v>134</v>
+      </c>
+      <c r="D53" t="n" s="92">
+        <v>250.0</v>
       </c>
     </row>
     <row r="54" ht="30.0" customHeight="true">
-      <c r="A54" t="s" s="88">
+      <c r="A54" t="s" s="94">
         <v>132</v>
       </c>
-      <c r="B54" t="s" s="89">
-        <v>133</v>
-      </c>
-      <c r="C54" t="s" s="90">
-        <v>134</v>
-      </c>
-      <c r="D54" t="n" s="92">
-        <v>250.0</v>
+      <c r="B54" t="s" s="95">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s" s="96">
+        <v>137</v>
+      </c>
+      <c r="D54" t="n" s="98">
+        <v>900.0</v>
       </c>
     </row>
     <row r="55" ht="30.0" customHeight="true">
-      <c r="A55" t="s" s="94">
+      <c r="A55" t="s" s="100">
         <v>132</v>
       </c>
-      <c r="B55" t="s" s="95">
-        <v>136</v>
-      </c>
-      <c r="C55" t="s" s="96">
+      <c r="B55" t="s" s="101">
+        <v>139</v>
+      </c>
+      <c r="C55" t="s" s="102">
         <v>137</v>
       </c>
-      <c r="D55" t="n" s="98">
-        <v>900.0</v>
+      <c r="D55" t="n" s="104">
+        <v>500.0</v>
       </c>
     </row>
     <row r="56" ht="30.0" customHeight="true">
-      <c r="A56" t="s" s="100">
-        <v>132</v>
-      </c>
-      <c r="B56" t="s" s="101">
-        <v>139</v>
-      </c>
-      <c r="C56" t="s" s="102">
-        <v>137</v>
-      </c>
-      <c r="D56" t="n" s="104">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="57" ht="30.0" customHeight="true">
-      <c r="A57" t="s" s="130">
+      <c r="A56" t="s" s="130">
         <v>151</v>
       </c>
-      <c r="B57" t="s" s="131">
+      <c r="B56" t="s" s="131">
         <v>152</v>
       </c>
-      <c r="C57" t="s" s="132">
+      <c r="C56" t="s" s="132">
         <v>153</v>
       </c>
-      <c r="D57" t="n" s="134">
+      <c r="D56" t="n" s="134">
         <v>1000.0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" t="n" s="135">
-        <f>SUM(D2:D57)</f>
+    <row r="57" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" t="n" s="135">
+        <f>SUM(D2:D56)</f>
         <v>15450.19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
@@ -3292,7 +3285,7 @@
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
@@ -3347,7 +3340,7 @@
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
@@ -3356,11 +3349,6 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="D106" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="161">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -493,6 +493,27 @@
   </si>
   <si>
     <t>dsdf</t>
+  </si>
+  <si>
+    <t>13  AGOSTO</t>
+  </si>
+  <si>
+    <t>TALADRO REGALADO</t>
+  </si>
+  <si>
+    <t>martillo regalado</t>
+  </si>
+  <si>
+    <t>me lo regalo el alex</t>
+  </si>
+  <si>
+    <t>MARTILLO NO REGALADO</t>
+  </si>
+  <si>
+    <t>ESTE NO ME LO REGALARON</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -503,7 +524,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="122" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +555,150 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1351,7 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1750,6 +1915,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="121" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="126" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="127" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="132" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="133" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="138" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="139" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="144" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="145" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3101,36 +3338,72 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" t="n" s="135">
-        <f>SUM(D2:D56)</f>
-        <v>15450.19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="30.0" customHeight="true">
+      <c r="A57" t="s" s="136">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s" s="137">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s" s="138">
+        <v>121</v>
+      </c>
+      <c r="D57" t="n" s="140">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="58" ht="30.0" customHeight="true">
+      <c r="A58" t="s" s="142">
+        <v>154</v>
+      </c>
+      <c r="B58" t="s" s="143">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s" s="144">
+        <v>121</v>
+      </c>
+      <c r="D58" t="n" s="146">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="59" ht="30.0" customHeight="true">
+      <c r="A59" t="s" s="148">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s" s="149">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s" s="150">
+        <v>157</v>
+      </c>
+      <c r="D59" t="n" s="152">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="60" ht="30.0" customHeight="true">
+      <c r="A60" t="s" s="154">
+        <v>154</v>
+      </c>
+      <c r="B60" t="s" s="155">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s" s="156">
+        <v>159</v>
+      </c>
+      <c r="D60" t="n" s="158">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" t="n" s="159">
+        <f>SUM(D2:D60)</f>
+        <v>19720.19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="164">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -514,6 +514,15 @@
   </si>
   <si>
     <t>200</t>
+  </si>
+  <si>
+    <t>17  AGOSTO</t>
+  </si>
+  <si>
+    <t>Martillo</t>
+  </si>
+  <si>
+    <t>Chido</t>
   </si>
 </sst>
 </file>
@@ -524,7 +533,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="152" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +564,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1516,7 +1561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1987,6 +2032,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="145" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="150" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="151" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3394,21 +3457,30 @@
         <v>200.0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" t="n" s="159">
-        <f>SUM(D2:D60)</f>
-        <v>19720.19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="30.0" customHeight="true">
+      <c r="A61" t="s" s="160">
+        <v>161</v>
+      </c>
+      <c r="B61" t="s" s="161">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s" s="162">
+        <v>163</v>
+      </c>
+      <c r="D61" t="n" s="164">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" t="n" s="165">
+        <f>SUM(D2:D61)</f>
+        <v>19970.19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="168">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -523,6 +523,18 @@
   </si>
   <si>
     <t>Chido</t>
+  </si>
+  <si>
+    <t>18  AGOSTO</t>
+  </si>
+  <si>
+    <t>RTOMARTILLO</t>
+  </si>
+  <si>
+    <t>CHINGONOMETRICO</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
 </sst>
 </file>
@@ -533,7 +545,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="152" x14ac:knownFonts="1">
+  <fonts count="158" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +576,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1561,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2050,6 +2098,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="151" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="156" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="157" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3471,21 +3537,30 @@
         <v>250.0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" t="n" s="165">
-        <f>SUM(D2:D61)</f>
-        <v>19970.19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" ht="30.0" customHeight="true">
+      <c r="A62" t="s" s="166">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s" s="167">
+        <v>165</v>
+      </c>
+      <c r="C62" t="s" s="168">
+        <v>166</v>
+      </c>
+      <c r="D62" t="n" s="170">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" t="n" s="171">
+        <f>SUM(D2:D62)</f>
+        <v>20270.19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="177">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -535,6 +535,33 @@
   </si>
   <si>
     <t>300</t>
+  </si>
+  <si>
+    <t>EDFD</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>ZXCX</t>
+  </si>
+  <si>
+    <t>GFG</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>423</t>
   </si>
 </sst>
 </file>
@@ -545,7 +572,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="158" x14ac:knownFonts="1">
+  <fonts count="182" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +603,150 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1609,7 +1780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2116,6 +2287,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="157" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="162" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="163" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="168" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="169" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="174" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="175" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="180" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="181" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3551,21 +3794,30 @@
         <v>300.0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" t="n" s="171">
-        <f>SUM(D2:D62)</f>
-        <v>20270.19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="30.0" customHeight="true">
+      <c r="A63" t="s" s="172">
+        <v>164</v>
+      </c>
+      <c r="B63" t="s" s="173">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s" s="174">
+        <v>169</v>
+      </c>
+      <c r="D63" t="n" s="176">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" t="n" s="177">
+        <f>SUM(D2:D63)</f>
+        <v>20271.19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
@@ -3806,7 +4058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -3818,7 +4070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -3830,7 +4082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -3842,7 +4094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -3854,7 +4106,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -3866,7 +4118,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -3878,7 +4130,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43845</v>
       </c>
@@ -3890,7 +4142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43845</v>
       </c>
@@ -3902,7 +4154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43845</v>
       </c>
@@ -3914,7 +4166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43845</v>
       </c>
@@ -3928,7 +4180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43845</v>
       </c>
@@ -3942,7 +4194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44031</v>
       </c>
@@ -3956,7 +4208,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44020</v>
       </c>
@@ -3970,7 +4222,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43845</v>
       </c>
@@ -3984,7 +4236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43845</v>
       </c>
@@ -3996,7 +4248,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43845</v>
       </c>
@@ -4008,7 +4260,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43845</v>
       </c>
@@ -4022,16 +4274,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17" t="n">
-        <f>SUM(D2:D18)</f>
-        <v>2285.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="30.0" customHeight="true">
+      <c r="A19" t="s" s="178">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s" s="179">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s" s="180">
+        <v>171</v>
+      </c>
+      <c r="D19" t="n" s="182">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" t="n" s="183">
+        <f>SUM(D2:D19)</f>
+        <v>2287.0</v>
+      </c>
+    </row>
     <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4814,30 +5079,34 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" t="n" s="123">
-        <f>SUM(D2:D49)</f>
-        <v>19953.989999999998</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+    <row r="50" ht="30.0" customHeight="true">
+      <c r="A50" t="s" s="184">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s" s="185">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s" s="186">
+        <v>174</v>
+      </c>
+      <c r="D50" t="n" s="188">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" t="n" s="189">
+        <f>SUM(D2:D50)</f>
+        <v>19985.989999999998</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5334,7 +5603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43845</v>
       </c>
@@ -5346,7 +5615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43845</v>
       </c>
@@ -5358,7 +5627,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43845</v>
       </c>
@@ -5370,7 +5639,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43845</v>
       </c>
@@ -5384,7 +5653,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43845</v>
       </c>
@@ -5396,7 +5665,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43845</v>
       </c>
@@ -5408,19 +5677,28 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="n">
-        <f>SUM(D2:D7)</f>
-        <v>525.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="8" ht="30.0" customHeight="true">
+      <c r="A8" t="s" s="190">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s" s="191">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s" s="192">
+        <v>176</v>
+      </c>
+      <c r="D8" t="n" s="194">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" t="n" s="195">
+        <f>SUM(D2:D8)</f>
+        <v>527.0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -2975,7 +2975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
@@ -3003,15 +3003,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>43871</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11">
-        <v>149</v>
+      <c r="A2" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2480</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3019,13 +3021,11 @@
         <v>43845</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>2480</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3033,31 +3033,31 @@
         <v>43845</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
-        <v>200</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8">
-        <v>105</v>
+      <c r="A5" s="12">
+        <v>43987</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>43987</v>
+        <v>43845</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14">
@@ -3069,7 +3069,7 @@
         <v>43845</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14">
@@ -3089,15 +3089,15 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>43845</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14">
-        <v>0</v>
+      <c r="A9" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3105,11 +3105,13 @@
         <v>43845</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" s="8">
-        <v>48</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3117,61 +3119,59 @@
         <v>43845</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="8">
-        <v>1100</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8">
-        <v>255</v>
+      <c r="A12" s="9">
+        <v>43917</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>43917</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11">
-        <v>38</v>
+      <c r="A13" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8">
-        <v>35</v>
+      <c r="A14" s="12">
+        <v>43845</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>43845</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14">
-        <v>0</v>
+      <c r="A15" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3179,11 +3179,11 @@
         <v>43845</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3191,11 +3191,11 @@
         <v>43845</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3203,11 +3203,11 @@
         <v>43845</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
-        <v>76</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3215,59 +3215,59 @@
         <v>43845</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8">
-        <v>360</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8">
-        <v>550</v>
+      <c r="A20" s="9">
+        <v>43880</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11">
+        <v>496.55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>43880</v>
+        <v>43917</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11">
-        <v>496.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>43917</v>
+        <v>43850</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11">
-        <v>180</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>43850</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11">
-        <v>121.74</v>
+      <c r="A23" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3275,11 +3275,11 @@
         <v>43845</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8">
-        <v>159</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3287,11 +3287,11 @@
         <v>43845</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8">
-        <v>50</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3299,61 +3299,61 @@
         <v>43845</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="D26" s="8">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43845</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="8">
-        <v>63</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8">
-        <v>167</v>
+      <c r="A28" s="9">
+        <v>43850</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11">
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>43850</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>43845</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43845</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3361,11 +3361,11 @@
         <v>43845</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8">
-        <v>105</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
@@ -3373,49 +3373,50 @@
         <v>43845</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8">
-        <v>595</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43845</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>43845</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8">
-        <v>89</v>
+      <c r="A34" s="9">
+        <v>43979</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11">
+        <v>39.9</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <v>43979</v>
+        <v>43871</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="11">
-        <v>39.9</v>
+        <v>159</v>
       </c>
       <c r="G35" s="5"/>
     </row>
@@ -3424,11 +3425,11 @@
         <v>43871</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="G36" s="5"/>
     </row>
@@ -3437,387 +3438,379 @@
         <v>43871</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>43871</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11">
-        <v>225</v>
+      <c r="A38" s="12">
+        <v>43845</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0</v>
       </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>43845</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="14">
-        <v>0</v>
+      <c r="A39" s="9">
+        <v>44012</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="11">
+        <v>349</v>
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>44012</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>110</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="11">
-        <v>349</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>44012</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11">
         <v>79</v>
       </c>
     </row>
+    <row r="41" ht="30.0" customHeight="true">
+      <c r="A41" t="s" s="18">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s" s="19">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="D41" t="n" s="22">
+        <v>100.0</v>
+      </c>
+    </row>
     <row r="42" ht="30.0" customHeight="true">
-      <c r="A42" t="s" s="18">
+      <c r="A42" t="s" s="24">
         <v>113</v>
       </c>
-      <c r="B42" t="s" s="19">
+      <c r="B42" t="s" s="25">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="D42" t="n" s="28">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="30.0" customHeight="true">
+      <c r="A43" t="s" s="30">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s" s="31">
         <v>114</v>
       </c>
-      <c r="C42" t="s" s="20">
+      <c r="C43" t="s" s="32">
         <v>115</v>
       </c>
-      <c r="D42" t="n" s="22">
+      <c r="D43" t="n" s="34">
         <v>100.0</v>
       </c>
     </row>
-    <row r="43" ht="30.0" customHeight="true">
-      <c r="A43" t="s" s="24">
-        <v>113</v>
-      </c>
-      <c r="B43" t="s" s="25">
-        <v>117</v>
-      </c>
-      <c r="C43" t="s" s="26">
-        <v>117</v>
-      </c>
-      <c r="D43" t="n" s="28">
+    <row r="44" ht="30.0" customHeight="true">
+      <c r="A44" t="s" s="36">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s" s="37">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s" s="38">
+        <v>115</v>
+      </c>
+      <c r="D44" t="n" s="40">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45" ht="30.0" customHeight="true">
+      <c r="A45" t="s" s="42">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s" s="43">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s" s="44">
+        <v>115</v>
+      </c>
+      <c r="D45" t="n" s="46">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="46" ht="30.0" customHeight="true">
+      <c r="A46" t="s" s="48">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s" s="49">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s" s="50">
+        <v>115</v>
+      </c>
+      <c r="D46" t="n" s="52">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="47" ht="30.0" customHeight="true">
+      <c r="A47" t="s" s="54">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s" s="55">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s" s="56">
+        <v>115</v>
+      </c>
+      <c r="D47" t="n" s="58">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="48" ht="30.0" customHeight="true">
+      <c r="A48" t="s" s="60">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s" s="61">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s" s="62">
+        <v>121</v>
+      </c>
+      <c r="D48" t="n" s="64">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="49" ht="30.0" customHeight="true">
+      <c r="A49" t="s" s="66">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s" s="67">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s" s="68">
+        <v>121</v>
+      </c>
+      <c r="D49" t="n" s="70">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="50" ht="30.0" customHeight="true">
+      <c r="A50" t="s" s="72">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s" s="73">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s" s="74">
+        <v>121</v>
+      </c>
+      <c r="D50" t="n" s="76">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="51" ht="30.0" customHeight="true">
+      <c r="A51" t="s" s="78">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s" s="79">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s" s="80">
+        <v>127</v>
+      </c>
+      <c r="D51" t="n" s="82">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="52" ht="30.0" customHeight="true">
+      <c r="A52" t="s" s="88">
+        <v>132</v>
+      </c>
+      <c r="B52" t="s" s="89">
+        <v>133</v>
+      </c>
+      <c r="C52" t="s" s="90">
+        <v>134</v>
+      </c>
+      <c r="D52" t="n" s="92">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="53" ht="30.0" customHeight="true">
+      <c r="A53" t="s" s="94">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s" s="95">
+        <v>136</v>
+      </c>
+      <c r="C53" t="s" s="96">
+        <v>137</v>
+      </c>
+      <c r="D53" t="n" s="98">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="54" ht="30.0" customHeight="true">
+      <c r="A54" t="s" s="100">
+        <v>132</v>
+      </c>
+      <c r="B54" t="s" s="101">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s" s="102">
+        <v>137</v>
+      </c>
+      <c r="D54" t="n" s="104">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="55" ht="30.0" customHeight="true">
+      <c r="A55" t="s" s="130">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s" s="131">
+        <v>152</v>
+      </c>
+      <c r="C55" t="s" s="132">
+        <v>153</v>
+      </c>
+      <c r="D55" t="n" s="134">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="56" ht="30.0" customHeight="true">
+      <c r="A56" t="s" s="136">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s" s="137">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s" s="138">
+        <v>121</v>
+      </c>
+      <c r="D56" t="n" s="140">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="57" ht="30.0" customHeight="true">
+      <c r="A57" t="s" s="142">
+        <v>154</v>
+      </c>
+      <c r="B57" t="s" s="143">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s" s="144">
+        <v>121</v>
+      </c>
+      <c r="D57" t="n" s="146">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="58" ht="30.0" customHeight="true">
+      <c r="A58" t="s" s="148">
+        <v>154</v>
+      </c>
+      <c r="B58" t="s" s="149">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s" s="150">
+        <v>157</v>
+      </c>
+      <c r="D58" t="n" s="152">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="59" ht="30.0" customHeight="true">
+      <c r="A59" t="s" s="154">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s" s="155">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s" s="156">
+        <v>159</v>
+      </c>
+      <c r="D59" t="n" s="158">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="60" ht="30.0" customHeight="true">
+      <c r="A60" t="s" s="160">
+        <v>161</v>
+      </c>
+      <c r="B60" t="s" s="161">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s" s="162">
+        <v>163</v>
+      </c>
+      <c r="D60" t="n" s="164">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="61" ht="30.0" customHeight="true">
+      <c r="A61" t="s" s="166">
+        <v>164</v>
+      </c>
+      <c r="B61" t="s" s="167">
+        <v>165</v>
+      </c>
+      <c r="C61" t="s" s="168">
+        <v>166</v>
+      </c>
+      <c r="D61" t="n" s="170">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="62" ht="30.0" customHeight="true">
+      <c r="A62" t="s" s="172">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s" s="173">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s" s="174">
+        <v>169</v>
+      </c>
+      <c r="D62" t="n" s="176">
         <v>1.0</v>
       </c>
     </row>
-    <row r="44" ht="30.0" customHeight="true">
-      <c r="A44" t="s" s="30">
-        <v>119</v>
-      </c>
-      <c r="B44" t="s" s="31">
-        <v>114</v>
-      </c>
-      <c r="C44" t="s" s="32">
-        <v>115</v>
-      </c>
-      <c r="D44" t="n" s="34">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="45" ht="30.0" customHeight="true">
-      <c r="A45" t="s" s="36">
-        <v>119</v>
-      </c>
-      <c r="B45" t="s" s="37">
-        <v>114</v>
-      </c>
-      <c r="C45" t="s" s="38">
-        <v>115</v>
-      </c>
-      <c r="D45" t="n" s="40">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="46" ht="30.0" customHeight="true">
-      <c r="A46" t="s" s="42">
-        <v>119</v>
-      </c>
-      <c r="B46" t="s" s="43">
-        <v>114</v>
-      </c>
-      <c r="C46" t="s" s="44">
-        <v>115</v>
-      </c>
-      <c r="D46" t="n" s="46">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="47" ht="30.0" customHeight="true">
-      <c r="A47" t="s" s="48">
-        <v>119</v>
-      </c>
-      <c r="B47" t="s" s="49">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s" s="50">
-        <v>115</v>
-      </c>
-      <c r="D47" t="n" s="52">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="48" ht="30.0" customHeight="true">
-      <c r="A48" t="s" s="54">
-        <v>119</v>
-      </c>
-      <c r="B48" t="s" s="55">
-        <v>114</v>
-      </c>
-      <c r="C48" t="s" s="56">
-        <v>115</v>
-      </c>
-      <c r="D48" t="n" s="58">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="49" ht="30.0" customHeight="true">
-      <c r="A49" t="s" s="60">
-        <v>119</v>
-      </c>
-      <c r="B49" t="s" s="61">
-        <v>19</v>
-      </c>
-      <c r="C49" t="s" s="62">
-        <v>121</v>
-      </c>
-      <c r="D49" t="n" s="64">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="50" ht="30.0" customHeight="true">
-      <c r="A50" t="s" s="66">
-        <v>119</v>
-      </c>
-      <c r="B50" t="s" s="67">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s" s="68">
-        <v>121</v>
-      </c>
-      <c r="D50" t="n" s="70">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="51" ht="30.0" customHeight="true">
-      <c r="A51" t="s" s="72">
-        <v>123</v>
-      </c>
-      <c r="B51" t="s" s="73">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s" s="74">
-        <v>121</v>
-      </c>
-      <c r="D51" t="n" s="76">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="52" ht="30.0" customHeight="true">
-      <c r="A52" t="s" s="78">
-        <v>125</v>
-      </c>
-      <c r="B52" t="s" s="79">
-        <v>126</v>
-      </c>
-      <c r="C52" t="s" s="80">
-        <v>127</v>
-      </c>
-      <c r="D52" t="n" s="82">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="53" ht="30.0" customHeight="true">
-      <c r="A53" t="s" s="88">
-        <v>132</v>
-      </c>
-      <c r="B53" t="s" s="89">
-        <v>133</v>
-      </c>
-      <c r="C53" t="s" s="90">
-        <v>134</v>
-      </c>
-      <c r="D53" t="n" s="92">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="54" ht="30.0" customHeight="true">
-      <c r="A54" t="s" s="94">
-        <v>132</v>
-      </c>
-      <c r="B54" t="s" s="95">
-        <v>136</v>
-      </c>
-      <c r="C54" t="s" s="96">
-        <v>137</v>
-      </c>
-      <c r="D54" t="n" s="98">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="55" ht="30.0" customHeight="true">
-      <c r="A55" t="s" s="100">
-        <v>132</v>
-      </c>
-      <c r="B55" t="s" s="101">
-        <v>139</v>
-      </c>
-      <c r="C55" t="s" s="102">
-        <v>137</v>
-      </c>
-      <c r="D55" t="n" s="104">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="56" ht="30.0" customHeight="true">
-      <c r="A56" t="s" s="130">
-        <v>151</v>
-      </c>
-      <c r="B56" t="s" s="131">
-        <v>152</v>
-      </c>
-      <c r="C56" t="s" s="132">
-        <v>153</v>
-      </c>
-      <c r="D56" t="n" s="134">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="57" ht="30.0" customHeight="true">
-      <c r="A57" t="s" s="136">
-        <v>154</v>
-      </c>
-      <c r="B57" t="s" s="137">
-        <v>155</v>
-      </c>
-      <c r="C57" t="s" s="138">
-        <v>121</v>
-      </c>
-      <c r="D57" t="n" s="140">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="58" ht="30.0" customHeight="true">
-      <c r="A58" t="s" s="142">
-        <v>154</v>
-      </c>
-      <c r="B58" t="s" s="143">
-        <v>155</v>
-      </c>
-      <c r="C58" t="s" s="144">
-        <v>121</v>
-      </c>
-      <c r="D58" t="n" s="146">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="59" ht="30.0" customHeight="true">
-      <c r="A59" t="s" s="148">
-        <v>154</v>
-      </c>
-      <c r="B59" t="s" s="149">
-        <v>156</v>
-      </c>
-      <c r="C59" t="s" s="150">
-        <v>157</v>
-      </c>
-      <c r="D59" t="n" s="152">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="60" ht="30.0" customHeight="true">
-      <c r="A60" t="s" s="154">
-        <v>154</v>
-      </c>
-      <c r="B60" t="s" s="155">
-        <v>158</v>
-      </c>
-      <c r="C60" t="s" s="156">
-        <v>159</v>
-      </c>
-      <c r="D60" t="n" s="158">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="61" ht="30.0" customHeight="true">
-      <c r="A61" t="s" s="160">
-        <v>161</v>
-      </c>
-      <c r="B61" t="s" s="161">
-        <v>162</v>
-      </c>
-      <c r="C61" t="s" s="162">
-        <v>163</v>
-      </c>
-      <c r="D61" t="n" s="164">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="62" ht="30.0" customHeight="true">
-      <c r="A62" t="s" s="166">
-        <v>164</v>
-      </c>
-      <c r="B62" t="s" s="167">
-        <v>165</v>
-      </c>
-      <c r="C62" t="s" s="168">
-        <v>166</v>
-      </c>
-      <c r="D62" t="n" s="170">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="63" ht="30.0" customHeight="true">
-      <c r="A63" t="s" s="172">
-        <v>164</v>
-      </c>
-      <c r="B63" t="s" s="173">
-        <v>168</v>
-      </c>
-      <c r="C63" t="s" s="174">
-        <v>169</v>
-      </c>
-      <c r="D63" t="n" s="176">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" t="n" s="177">
-        <f>SUM(D2:D63)</f>
+    <row r="63" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" t="n" s="177">
+        <f>SUM(D2:D62)</f>
         <v>20271.19</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
@@ -3952,7 +3945,7 @@
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
@@ -4007,7 +4000,7 @@
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
@@ -4016,11 +4009,6 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="D105" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -562,6 +562,15 @@
   </si>
   <si>
     <t>423</t>
+  </si>
+  <si>
+    <t>19  AGOSTO</t>
+  </si>
+  <si>
+    <t>Marillo</t>
+  </si>
+  <si>
+    <t>Mamalon</t>
   </si>
 </sst>
 </file>
@@ -572,7 +581,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="182" x14ac:knownFonts="1">
+  <fonts count="188" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +612,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1780,7 +1825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2359,6 +2404,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="181" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="186" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="187" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3796,21 +3859,30 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" t="n" s="177">
-        <f>SUM(D2:D62)</f>
-        <v>20271.19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="30.0" customHeight="true">
+      <c r="A63" t="s" s="196">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s" s="197">
+        <v>178</v>
+      </c>
+      <c r="C63" t="s" s="198">
+        <v>179</v>
+      </c>
+      <c r="D63" t="n" s="200">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" t="n" s="201">
+        <f>SUM(D2:D63)</f>
+        <v>20322.19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="183">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t>Mamalon</t>
+  </si>
+  <si>
+    <t>21  AGOSTO</t>
+  </si>
+  <si>
+    <t>TALADRON</t>
+  </si>
+  <si>
+    <t>ASDSDAS</t>
   </si>
 </sst>
 </file>
@@ -581,7 +590,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="188" x14ac:knownFonts="1">
+  <fonts count="194" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +621,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1825,7 +1870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2422,6 +2467,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="187" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="192" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="193" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3873,21 +3936,30 @@
         <v>200.0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" t="n" s="201">
-        <f>SUM(D2:D63)</f>
-        <v>20322.19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="30.0" customHeight="true">
+      <c r="A64" t="s" s="202">
+        <v>180</v>
+      </c>
+      <c r="B64" t="s" s="203">
+        <v>181</v>
+      </c>
+      <c r="C64" t="s" s="204">
+        <v>182</v>
+      </c>
+      <c r="D64" t="n" s="206">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" t="n" s="207">
+        <f>SUM(D2:D64)</f>
+        <v>20445.19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>

--- a/JavaApplication19/src/excel/Equipo.xlsx
+++ b/JavaApplication19/src/excel/Equipo.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="185">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -580,6 +580,12 @@
   </si>
   <si>
     <t>ASDSDAS</t>
+  </si>
+  <si>
+    <t>TORNO</t>
+  </si>
+  <si>
+    <t>HMN</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="194" x14ac:knownFonts="1">
+  <fonts count="200" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +627,42 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1870,7 +1912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2485,6 +2527,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="193" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="7" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="198" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="199" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3101,7 +3161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
@@ -3954,9 +4014,9 @@
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
-      <c r="D65" t="n" s="207">
+      <c r="D65" t="n" s="213">
         <f>SUM(D2:D64)</f>
-        <v>20445.19</v>
+        <v>21445.19</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4084,7 +4144,7 @@
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
@@ -4139,7 +4199,7 @@
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
@@ -4148,11 +4208,6 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="D104" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
